--- a/data.xlsx
+++ b/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="193">
   <si>
     <t>CXD</t>
   </si>
@@ -346,80 +346,272 @@
     <t>tồn đầu kỳ</t>
   </si>
   <si>
+    <t>KHỐI THAM MƯU</t>
+  </si>
+  <si>
+    <t>Tác chiến, A2..</t>
+  </si>
+  <si>
+    <t>Tác chiến cho bay</t>
+  </si>
+  <si>
+    <t>Nổ máy sscđ</t>
+  </si>
+  <si>
+    <t>Tác chiến còn lại</t>
+  </si>
+  <si>
+    <t>Cứu hộ cứu nạn</t>
+  </si>
+  <si>
+    <t>Huấn luyện chiến đấu</t>
+  </si>
+  <si>
+    <t>HL bay</t>
+  </si>
+  <si>
+    <t>HL NV còn lại</t>
+  </si>
+  <si>
+    <t>HL NV PO 6</t>
+  </si>
+  <si>
+    <t>Bay đề cao</t>
+  </si>
+  <si>
+    <t>C.gia bay</t>
+  </si>
+  <si>
+    <t>VN bay</t>
+  </si>
+  <si>
+    <t>Khai thác thông tin</t>
+  </si>
+  <si>
+    <t>Cơ yếu</t>
+  </si>
+  <si>
+    <t>HL nhà trường</t>
+  </si>
+  <si>
+    <t>Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Công tác Quân báo</t>
+  </si>
+  <si>
+    <t>Quân ra, vào, phép</t>
+  </si>
+  <si>
+    <t>Đào tạo thợ</t>
+  </si>
+  <si>
+    <t>Đ. viên thời chiến</t>
+  </si>
+  <si>
+    <t>N.vụ khác (T tra bay)</t>
+  </si>
+  <si>
+    <t>KHỐI CHÍNH TRỊ</t>
+  </si>
+  <si>
+    <t>Công tác Đảng, CTCT</t>
+  </si>
+  <si>
+    <t>Chiếu phim</t>
+  </si>
+  <si>
+    <t>CT Đảng, CTCT</t>
+  </si>
+  <si>
+    <t>Kiểm tra đảng</t>
+  </si>
+  <si>
+    <t>Công tác chính sách</t>
+  </si>
+  <si>
+    <t>Ăn dưỡng</t>
+  </si>
+  <si>
+    <t>Nghiệp vụ cán bộ</t>
+  </si>
+  <si>
+    <t>KHỐI HẬU CẦN</t>
+  </si>
+  <si>
+    <t>Hậu cần đời sống</t>
+  </si>
+  <si>
+    <t>Công tác xăng dầu</t>
+  </si>
+  <si>
+    <t>VC Xăng dầu</t>
+  </si>
+  <si>
+    <t>Công tác vật tư</t>
+  </si>
+  <si>
+    <t>Đảo hạt HC</t>
+  </si>
+  <si>
+    <t>Hậu cần khác</t>
+  </si>
+  <si>
+    <t>KHỐI KỸ THUẬT</t>
+  </si>
+  <si>
+    <t>Ô tô trạm nguồn</t>
+  </si>
+  <si>
+    <t>Vũ khí đạn, VKHK</t>
+  </si>
+  <si>
+    <t>Kỹ thuật thông tin</t>
+  </si>
+  <si>
+    <t>Kỹ thuật công binh</t>
+  </si>
+  <si>
+    <t>KT Hàng không</t>
+  </si>
+  <si>
+    <t>Cắt cỏ sân bay</t>
+  </si>
+  <si>
+    <t>Tăng thiết giáp</t>
+  </si>
+  <si>
+    <t>Đo lường</t>
+  </si>
+  <si>
+    <t>KT Ra đa, tên lửa</t>
+  </si>
+  <si>
+    <t>Kỹ thuạt khác</t>
+  </si>
+  <si>
+    <t>HAO HỤT</t>
+  </si>
+  <si>
+    <t>Bù hao hụt</t>
+  </si>
+  <si>
+    <t>HH T.Xuyên</t>
+  </si>
+  <si>
+    <t>HH DTCĐ</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ</t>
+  </si>
+  <si>
+    <t>Hạn mức được QC cấp</t>
+  </si>
+  <si>
+    <t>Xăng</t>
+  </si>
+  <si>
+    <t>Điezel</t>
+  </si>
+  <si>
+    <t>Hoạt động của xe, máy</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>Giờ</t>
+  </si>
+  <si>
+    <t>Xe, máy chạy xăng</t>
+  </si>
+  <si>
+    <t>Xe, máy chạy DO</t>
+  </si>
+  <si>
+    <t>NLPL</t>
+  </si>
+  <si>
+    <t>Nhiên liệu tiêu thụ</t>
+  </si>
+  <si>
+    <t>Xăng tiêu thụ</t>
+  </si>
+  <si>
+    <t>Cho xe</t>
+  </si>
+  <si>
+    <t>Cho máy</t>
+  </si>
+  <si>
+    <t>Diezel tiêu thụ</t>
+  </si>
+  <si>
     <t>BÁO CÁO TIÊU THỤ XĂNG DẦU THEO NHIỆM VỤ
 (Từ ngày 01/01 đến 31/12/2023)</t>
   </si>
   <si>
-    <t>Nhiệm vụ</t>
-  </si>
-  <si>
-    <t>Hạn mức được QC cấp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xăng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diezel </t>
-  </si>
-  <si>
-    <t>Hoạt động của xe, máy</t>
-  </si>
-  <si>
-    <t>Xe, máy chạy DO</t>
-  </si>
-  <si>
-    <t>NLPL</t>
-  </si>
-  <si>
-    <t>Km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giờ </t>
-  </si>
-  <si>
-    <t>Giờ</t>
-  </si>
-  <si>
-    <t>Nhiên liệu tiêu thụ</t>
-  </si>
-  <si>
-    <t>Xăng tiêu thụ</t>
-  </si>
-  <si>
-    <t>Cho xe</t>
-  </si>
-  <si>
-    <t>Cho máy</t>
-  </si>
-  <si>
-    <t>Diezel tiêu thụ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cho máy </t>
-  </si>
-  <si>
-    <t>Sử dụng tích lũy</t>
-  </si>
-  <si>
-    <t>SS Sử dụng/Hạn mức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Còn </t>
+    <t>Sử dụng lũy tích</t>
+  </si>
+  <si>
+    <t>SS sử dụng/Hạn mức</t>
+  </si>
+  <si>
+    <t>Còn</t>
   </si>
   <si>
     <t>Quá</t>
   </si>
   <si>
-    <t>Xe, máy chạy xăng</t>
-  </si>
-  <si>
-    <t>Tổng Cộng</t>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>02:32:00</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>04:22:00</t>
+  </si>
+  <si>
+    <t>01:12:00</t>
+  </si>
+  <si>
+    <t>02:24:00</t>
+  </si>
+  <si>
+    <t>01:20:00</t>
+  </si>
+  <si>
+    <t>04:56:00</t>
+  </si>
+  <si>
+    <t>02:45:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +650,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -658,14 +850,76 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,22 +942,81 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,6 +1043,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,16 +1055,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,158 +1417,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="U2" s="29" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="U2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="30"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:23" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="24" t="s">
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="25"/>
-      <c r="W5" s="26"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="57"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="51" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20" t="s">
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="W6" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="23"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="54"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1379,12 +1746,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="C2:G2"/>
@@ -1401,11 +1767,12 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1442,11 +1809,11 @@
       <c r="I3" s="10"/>
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="F7" s="11" t="s">
@@ -3242,11 +3609,11 @@
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="13" t="s">
         <v>26</v>
       </c>
@@ -9807,303 +10174,4574 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y9"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
-    <col min="22" max="22" width="19" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="11.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="42" customWidth="1"/>
+    <col min="14" max="16" width="9.7109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="15" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="15" customWidth="1"/>
+    <col min="20" max="22" width="10" style="15" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="10" style="15" customWidth="1"/>
+    <col min="25" max="25" width="11" style="15" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" style="14" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" style="14" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="27" t="s">
+    <row r="2" spans="2:29" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="27" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="U2" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+    </row>
+    <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:29" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC6" s="75"/>
+    </row>
+    <row r="7" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" s="51"/>
+      <c r="P7" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC7" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="S8" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="76"/>
+    </row>
+    <row r="9" spans="2:29" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="38">
+        <v>553756</v>
+      </c>
+      <c r="I9" s="38">
+        <v>753772</v>
+      </c>
+      <c r="J9" s="39">
+        <v>4204522</v>
+      </c>
+      <c r="K9" s="39">
+        <v>5512050</v>
+      </c>
+      <c r="L9" s="39">
+        <v>400</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" s="39">
+        <v>280</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>61</v>
+      </c>
+      <c r="R9" s="39">
+        <v>0</v>
+      </c>
+      <c r="S9" s="39">
+        <v>61</v>
+      </c>
+      <c r="T9" s="39">
+        <v>64</v>
+      </c>
+      <c r="U9" s="39">
+        <v>0</v>
+      </c>
+      <c r="V9" s="38">
+        <v>64</v>
+      </c>
+      <c r="W9" s="39">
+        <v>11035</v>
+      </c>
+      <c r="X9" s="39">
+        <v>11160</v>
+      </c>
+      <c r="Y9" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="78"/>
+    </row>
+    <row r="10" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="25"/>
+      <c r="C10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
+      <c r="F10" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="28">
+        <v>409371</v>
+      </c>
+      <c r="I10" s="28">
+        <v>555424</v>
+      </c>
+      <c r="J10" s="28">
+        <v>3024322</v>
+      </c>
+      <c r="K10" s="28">
+        <v>3989117</v>
+      </c>
+      <c r="L10" s="28">
+        <v>250</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10" s="28">
+        <v>80</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>7</v>
+      </c>
+      <c r="R10" s="28">
+        <v>0</v>
+      </c>
+      <c r="S10" s="28">
+        <v>7</v>
+      </c>
+      <c r="T10" s="28">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0</v>
+      </c>
+      <c r="V10" s="28">
+        <v>0</v>
+      </c>
+      <c r="W10" s="28">
+        <v>11035</v>
+      </c>
+      <c r="X10" s="28">
+        <v>11042</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="79"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="80">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="29">
+        <v>181345</v>
+      </c>
+      <c r="I11" s="29">
+        <v>244870</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1302506</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1728721</v>
+      </c>
+      <c r="L11" s="29">
+        <v>0</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="29">
+        <v>0</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>0</v>
+      </c>
+      <c r="R11" s="29">
+        <v>0</v>
+      </c>
+      <c r="S11" s="29">
+        <v>0</v>
+      </c>
+      <c r="T11" s="29">
+        <v>0</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="29">
+        <v>0</v>
+      </c>
+      <c r="W11" s="29">
+        <v>4335</v>
+      </c>
+      <c r="X11" s="29">
+        <v>4335</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="81"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="29">
+        <v>181345</v>
+      </c>
+      <c r="I12" s="29">
+        <v>244870</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1302506</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1728721</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0</v>
+      </c>
+      <c r="S12" s="29">
+        <v>0</v>
+      </c>
+      <c r="T12" s="29">
+        <v>0</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0</v>
+      </c>
+      <c r="V12" s="29">
+        <v>0</v>
+      </c>
+      <c r="W12" s="29">
+        <v>4335</v>
+      </c>
+      <c r="X12" s="29">
+        <v>4335</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="81"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>0</v>
+      </c>
+      <c r="R13" s="29">
+        <v>0</v>
+      </c>
+      <c r="S13" s="29">
+        <v>0</v>
+      </c>
+      <c r="T13" s="29">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="81"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0</v>
+      </c>
+      <c r="S14" s="29">
+        <v>0</v>
+      </c>
+      <c r="T14" s="29">
+        <v>0</v>
+      </c>
+      <c r="U14" s="29">
+        <v>0</v>
+      </c>
+      <c r="V14" s="29">
+        <v>0</v>
+      </c>
+      <c r="W14" s="29">
+        <v>0</v>
+      </c>
+      <c r="X14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="81"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="80">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="29">
+        <v>700</v>
+      </c>
+      <c r="I15" s="29">
+        <v>600</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1300</v>
+      </c>
+      <c r="L15" s="29">
+        <v>100</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>14</v>
+      </c>
+      <c r="R15" s="29">
+        <v>0</v>
+      </c>
+      <c r="S15" s="29">
+        <v>14</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0</v>
+      </c>
+      <c r="U15" s="29">
+        <v>0</v>
+      </c>
+      <c r="V15" s="29">
+        <v>0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>0</v>
+      </c>
+      <c r="X15" s="29">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="81"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="80">
+        <v>3</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="29">
+        <v>181345</v>
+      </c>
+      <c r="I16" s="29">
+        <v>244870</v>
+      </c>
+      <c r="J16" s="29">
+        <v>1302506</v>
+      </c>
+      <c r="K16" s="29">
+        <v>1728721</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>0</v>
+      </c>
+      <c r="R16" s="29">
+        <v>0</v>
+      </c>
+      <c r="S16" s="29">
+        <v>0</v>
+      </c>
+      <c r="T16" s="29">
+        <v>0</v>
+      </c>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
+      <c r="V16" s="29">
+        <v>0</v>
+      </c>
+      <c r="W16" s="29">
+        <v>0</v>
+      </c>
+      <c r="X16" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="81"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29">
+        <v>0</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
+        <v>0</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>0</v>
+      </c>
+      <c r="R17" s="29">
+        <v>0</v>
+      </c>
+      <c r="S17" s="29">
+        <v>0</v>
+      </c>
+      <c r="T17" s="29">
+        <v>0</v>
+      </c>
+      <c r="U17" s="29">
+        <v>0</v>
+      </c>
+      <c r="V17" s="29">
+        <v>0</v>
+      </c>
+      <c r="W17" s="29">
+        <v>0</v>
+      </c>
+      <c r="X17" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="81"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
+      <c r="C18" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="29">
+        <v>181345</v>
+      </c>
+      <c r="I18" s="29">
+        <v>244870</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1302506</v>
+      </c>
+      <c r="K18" s="29">
+        <v>1728721</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>0</v>
+      </c>
+      <c r="R18" s="29">
+        <v>0</v>
+      </c>
+      <c r="S18" s="29">
+        <v>0</v>
+      </c>
+      <c r="T18" s="29">
+        <v>0</v>
+      </c>
+      <c r="U18" s="29">
+        <v>0</v>
+      </c>
+      <c r="V18" s="29">
+        <v>0</v>
+      </c>
+      <c r="W18" s="29">
+        <v>0</v>
+      </c>
+      <c r="X18" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="81"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0</v>
+      </c>
+      <c r="I19" s="29">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>0</v>
+      </c>
+      <c r="R19" s="29">
+        <v>0</v>
+      </c>
+      <c r="S19" s="29">
+        <v>0</v>
+      </c>
+      <c r="T19" s="29">
+        <v>0</v>
+      </c>
+      <c r="U19" s="29">
+        <v>0</v>
+      </c>
+      <c r="V19" s="29">
+        <v>0</v>
+      </c>
+      <c r="W19" s="29">
+        <v>0</v>
+      </c>
+      <c r="X19" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="81"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="80">
+        <v>4</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="29">
+        <v>5340</v>
+      </c>
+      <c r="I20" s="29">
+        <v>2440</v>
+      </c>
+      <c r="J20" s="29">
+        <v>29310</v>
+      </c>
+      <c r="K20" s="29">
+        <v>37090</v>
+      </c>
+      <c r="L20" s="29">
+        <v>0</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N20" s="29">
+        <v>0</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>0</v>
+      </c>
+      <c r="R20" s="29">
+        <v>0</v>
+      </c>
+      <c r="S20" s="29">
+        <v>0</v>
+      </c>
+      <c r="T20" s="29">
+        <v>0</v>
+      </c>
+      <c r="U20" s="29">
+        <v>0</v>
+      </c>
+      <c r="V20" s="29">
+        <v>0</v>
+      </c>
+      <c r="W20" s="29">
+        <v>0</v>
+      </c>
+      <c r="X20" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="81"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
+      <c r="C21" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" s="29">
+        <v>0</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>0</v>
+      </c>
+      <c r="R21" s="29">
+        <v>0</v>
+      </c>
+      <c r="S21" s="29">
+        <v>0</v>
+      </c>
+      <c r="T21" s="29">
+        <v>0</v>
+      </c>
+      <c r="U21" s="29">
+        <v>0</v>
+      </c>
+      <c r="V21" s="29">
+        <v>0</v>
+      </c>
+      <c r="W21" s="29">
+        <v>0</v>
+      </c>
+      <c r="X21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="81"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="C22" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="29">
+        <v>5340</v>
+      </c>
+      <c r="I22" s="29">
+        <v>2440</v>
+      </c>
+      <c r="J22" s="29">
+        <v>29310</v>
+      </c>
+      <c r="K22" s="29">
+        <v>37090</v>
+      </c>
+      <c r="L22" s="29">
+        <v>0</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" s="29">
+        <v>0</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>0</v>
+      </c>
+      <c r="R22" s="29">
+        <v>0</v>
+      </c>
+      <c r="S22" s="29">
+        <v>0</v>
+      </c>
+      <c r="T22" s="29">
+        <v>0</v>
+      </c>
+      <c r="U22" s="29">
+        <v>0</v>
+      </c>
+      <c r="V22" s="29">
+        <v>0</v>
+      </c>
+      <c r="W22" s="29">
+        <v>0</v>
+      </c>
+      <c r="X22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="81"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="80">
+        <v>5</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="29">
+        <v>9600</v>
+      </c>
+      <c r="I23" s="29">
+        <v>44000</v>
+      </c>
+      <c r="J23" s="29">
+        <v>780000</v>
+      </c>
+      <c r="K23" s="29">
+        <v>833600</v>
+      </c>
+      <c r="L23" s="29">
+        <v>0</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N23" s="29">
+        <v>0</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>0</v>
+      </c>
+      <c r="R23" s="29">
+        <v>0</v>
+      </c>
+      <c r="S23" s="29">
+        <v>0</v>
+      </c>
+      <c r="T23" s="29">
+        <v>0</v>
+      </c>
+      <c r="U23" s="29">
+        <v>0</v>
+      </c>
+      <c r="V23" s="29">
+        <v>0</v>
+      </c>
+      <c r="W23" s="29">
+        <v>0</v>
+      </c>
+      <c r="X23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="81"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="80">
+        <v>6</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="29">
+        <v>1740</v>
+      </c>
+      <c r="I24" s="29">
+        <v>2962</v>
+      </c>
+      <c r="J24" s="29">
+        <v>0</v>
+      </c>
+      <c r="K24" s="29">
+        <v>4702</v>
+      </c>
+      <c r="L24" s="29">
+        <v>0</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" s="29">
+        <v>0</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>0</v>
+      </c>
+      <c r="R24" s="29">
+        <v>0</v>
+      </c>
+      <c r="S24" s="29">
+        <v>0</v>
+      </c>
+      <c r="T24" s="29">
+        <v>0</v>
+      </c>
+      <c r="U24" s="29">
+        <v>0</v>
+      </c>
+      <c r="V24" s="29">
+        <v>0</v>
+      </c>
+      <c r="W24" s="29">
+        <v>0</v>
+      </c>
+      <c r="X24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="81"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="80">
+        <v>7</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="29">
+        <v>1506</v>
+      </c>
+      <c r="I25" s="29">
+        <v>1504</v>
+      </c>
+      <c r="J25" s="29">
+        <v>0</v>
+      </c>
+      <c r="K25" s="29">
+        <v>3010</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" s="29">
+        <v>0</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>0</v>
+      </c>
+      <c r="R25" s="29">
+        <v>0</v>
+      </c>
+      <c r="S25" s="29">
+        <v>0</v>
+      </c>
+      <c r="T25" s="29">
+        <v>0</v>
+      </c>
+      <c r="U25" s="29">
+        <v>0</v>
+      </c>
+      <c r="V25" s="29">
+        <v>0</v>
+      </c>
+      <c r="W25" s="29">
+        <v>13400</v>
+      </c>
+      <c r="X25" s="29">
+        <v>13400</v>
+      </c>
+      <c r="Y25" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="81"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="80">
+        <v>8</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29">
+        <v>0</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" s="29">
+        <v>0</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>0</v>
+      </c>
+      <c r="R26" s="29">
+        <v>0</v>
+      </c>
+      <c r="S26" s="29">
+        <v>0</v>
+      </c>
+      <c r="T26" s="29">
+        <v>0</v>
+      </c>
+      <c r="U26" s="29">
+        <v>0</v>
+      </c>
+      <c r="V26" s="29">
+        <v>0</v>
+      </c>
+      <c r="W26" s="29">
+        <v>0</v>
+      </c>
+      <c r="X26" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="81"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="80">
+        <v>9</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="29">
+        <v>5236</v>
+      </c>
+      <c r="I27" s="29">
+        <v>4162</v>
+      </c>
+      <c r="J27" s="29">
+        <v>0</v>
+      </c>
+      <c r="K27" s="29">
+        <v>9398</v>
+      </c>
+      <c r="L27" s="29">
+        <v>400</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" s="29">
+        <v>0</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q27" s="29">
+        <v>0</v>
+      </c>
+      <c r="R27" s="29">
+        <v>0</v>
+      </c>
+      <c r="S27" s="29">
+        <v>0</v>
+      </c>
+      <c r="T27" s="29">
+        <v>0</v>
+      </c>
+      <c r="U27" s="29">
+        <v>0</v>
+      </c>
+      <c r="V27" s="29">
+        <v>0</v>
+      </c>
+      <c r="W27" s="29">
+        <v>0</v>
+      </c>
+      <c r="X27" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="81"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="80">
+        <v>10</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+      <c r="J28" s="29">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="29">
+        <v>0</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="29">
+        <v>0</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>0</v>
+      </c>
+      <c r="R28" s="29">
+        <v>0</v>
+      </c>
+      <c r="S28" s="29">
+        <v>0</v>
+      </c>
+      <c r="T28" s="29">
+        <v>0</v>
+      </c>
+      <c r="U28" s="29">
+        <v>0</v>
+      </c>
+      <c r="V28" s="29">
+        <v>0</v>
+      </c>
+      <c r="W28" s="29">
+        <v>0</v>
+      </c>
+      <c r="X28" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="81"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="80">
+        <v>11</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="29">
+        <v>20000</v>
+      </c>
+      <c r="I29" s="29">
+        <v>21000</v>
+      </c>
+      <c r="J29" s="29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29">
+        <v>41000</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N29" s="29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>0</v>
+      </c>
+      <c r="R29" s="29">
+        <v>0</v>
+      </c>
+      <c r="S29" s="29">
+        <v>0</v>
+      </c>
+      <c r="T29" s="29">
+        <v>0</v>
+      </c>
+      <c r="U29" s="29">
+        <v>0</v>
+      </c>
+      <c r="V29" s="29">
+        <v>0</v>
+      </c>
+      <c r="W29" s="29">
+        <v>0</v>
+      </c>
+      <c r="X29" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="81"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="80">
+        <v>12</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="29">
+        <v>28000</v>
+      </c>
+      <c r="I30" s="29">
+        <v>39660</v>
+      </c>
+      <c r="J30" s="29">
+        <v>0</v>
+      </c>
+      <c r="K30" s="29">
+        <v>67660</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30" s="29">
+        <v>160</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q30" s="29">
+        <v>0</v>
+      </c>
+      <c r="R30" s="29">
+        <v>0</v>
+      </c>
+      <c r="S30" s="29">
+        <v>0</v>
+      </c>
+      <c r="T30" s="29">
+        <v>0</v>
+      </c>
+      <c r="U30" s="29">
+        <v>0</v>
+      </c>
+      <c r="V30" s="29">
+        <v>0</v>
+      </c>
+      <c r="W30" s="29">
+        <v>0</v>
+      </c>
+      <c r="X30" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="81"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="80">
+        <v>13</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="29">
+        <v>0</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+      <c r="J31" s="29">
+        <v>0</v>
+      </c>
+      <c r="K31" s="29">
+        <v>0</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N31" s="29">
+        <v>0</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q31" s="29">
+        <v>0</v>
+      </c>
+      <c r="R31" s="29">
+        <v>0</v>
+      </c>
+      <c r="S31" s="29">
+        <v>0</v>
+      </c>
+      <c r="T31" s="29">
+        <v>0</v>
+      </c>
+      <c r="U31" s="29">
+        <v>0</v>
+      </c>
+      <c r="V31" s="29">
+        <v>0</v>
+      </c>
+      <c r="W31" s="29">
+        <v>0</v>
+      </c>
+      <c r="X31" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="81"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
+      <c r="C32" s="80">
+        <v>14</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+      <c r="J32" s="29">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" s="29">
+        <v>0</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
+      <c r="R32" s="29">
+        <v>0</v>
+      </c>
+      <c r="S32" s="29">
+        <v>0</v>
+      </c>
+      <c r="T32" s="29">
+        <v>0</v>
+      </c>
+      <c r="U32" s="29">
+        <v>0</v>
+      </c>
+      <c r="V32" s="29">
+        <v>0</v>
+      </c>
+      <c r="W32" s="29">
+        <v>0</v>
+      </c>
+      <c r="X32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="81"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="30"/>
+      <c r="C33" s="80">
+        <v>15</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="29">
+        <v>14900</v>
+      </c>
+      <c r="I33" s="29">
+        <v>12600</v>
+      </c>
+      <c r="J33" s="29">
+        <v>0</v>
+      </c>
+      <c r="K33" s="29">
+        <v>27500</v>
+      </c>
+      <c r="L33" s="29">
+        <v>0</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" s="29">
+        <v>0</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q33" s="29">
+        <v>0</v>
+      </c>
+      <c r="R33" s="29">
+        <v>0</v>
+      </c>
+      <c r="S33" s="29">
+        <v>0</v>
+      </c>
+      <c r="T33" s="29">
+        <v>0</v>
+      </c>
+      <c r="U33" s="29">
+        <v>0</v>
+      </c>
+      <c r="V33" s="29">
+        <v>0</v>
+      </c>
+      <c r="W33" s="29">
+        <v>0</v>
+      </c>
+      <c r="X33" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="81"/>
+    </row>
+    <row r="34" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
+      <c r="C34" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="28">
+        <v>52990</v>
+      </c>
+      <c r="I34" s="28">
+        <v>69138</v>
+      </c>
+      <c r="J34" s="28">
+        <v>0</v>
+      </c>
+      <c r="K34" s="28">
+        <v>122128</v>
+      </c>
+      <c r="L34" s="28">
+        <v>0</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="N34" s="28">
+        <v>0</v>
+      </c>
+      <c r="O34" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>0</v>
+      </c>
+      <c r="R34" s="28">
+        <v>0</v>
+      </c>
+      <c r="S34" s="28">
+        <v>0</v>
+      </c>
+      <c r="T34" s="28">
+        <v>0</v>
+      </c>
+      <c r="U34" s="28">
+        <v>0</v>
+      </c>
+      <c r="V34" s="28">
+        <v>0</v>
+      </c>
+      <c r="W34" s="28">
+        <v>0</v>
+      </c>
+      <c r="X34" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="79"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="80">
+        <v>1</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="29">
+        <v>3000</v>
+      </c>
+      <c r="I35" s="29">
+        <v>6000</v>
+      </c>
+      <c r="J35" s="29">
+        <v>0</v>
+      </c>
+      <c r="K35" s="29">
+        <v>9000</v>
+      </c>
+      <c r="L35" s="29">
+        <v>0</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N35" s="29">
+        <v>0</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q35" s="29">
+        <v>0</v>
+      </c>
+      <c r="R35" s="29">
+        <v>0</v>
+      </c>
+      <c r="S35" s="29">
+        <v>0</v>
+      </c>
+      <c r="T35" s="29">
+        <v>0</v>
+      </c>
+      <c r="U35" s="29">
+        <v>0</v>
+      </c>
+      <c r="V35" s="29">
+        <v>0</v>
+      </c>
+      <c r="W35" s="29">
+        <v>0</v>
+      </c>
+      <c r="X35" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="81"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="30"/>
+      <c r="C36" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="29">
+        <v>3000</v>
+      </c>
+      <c r="I36" s="29">
+        <v>6000</v>
+      </c>
+      <c r="J36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="29">
+        <v>9000</v>
+      </c>
+      <c r="L36" s="29">
+        <v>0</v>
+      </c>
+      <c r="M36" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N36" s="29">
+        <v>0</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="29">
+        <v>0</v>
+      </c>
+      <c r="R36" s="29">
+        <v>0</v>
+      </c>
+      <c r="S36" s="29">
+        <v>0</v>
+      </c>
+      <c r="T36" s="29">
+        <v>0</v>
+      </c>
+      <c r="U36" s="29">
+        <v>0</v>
+      </c>
+      <c r="V36" s="29">
+        <v>0</v>
+      </c>
+      <c r="W36" s="29">
+        <v>0</v>
+      </c>
+      <c r="X36" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="81"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+      <c r="C37" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="29">
+        <v>0</v>
+      </c>
+      <c r="I37" s="29">
+        <v>0</v>
+      </c>
+      <c r="J37" s="29">
+        <v>0</v>
+      </c>
+      <c r="K37" s="29">
+        <v>0</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N37" s="29">
+        <v>0</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q37" s="29">
+        <v>0</v>
+      </c>
+      <c r="R37" s="29">
+        <v>0</v>
+      </c>
+      <c r="S37" s="29">
+        <v>0</v>
+      </c>
+      <c r="T37" s="29">
+        <v>0</v>
+      </c>
+      <c r="U37" s="29">
+        <v>0</v>
+      </c>
+      <c r="V37" s="29">
+        <v>0</v>
+      </c>
+      <c r="W37" s="29">
+        <v>0</v>
+      </c>
+      <c r="X37" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="81"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B38" s="30"/>
+      <c r="C38" s="80">
+        <v>2</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="29">
+        <v>0</v>
+      </c>
+      <c r="I38" s="29">
+        <v>0</v>
+      </c>
+      <c r="J38" s="29">
+        <v>0</v>
+      </c>
+      <c r="K38" s="29">
+        <v>0</v>
+      </c>
+      <c r="L38" s="29">
+        <v>0</v>
+      </c>
+      <c r="M38" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N38" s="29">
+        <v>0</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q38" s="29">
+        <v>0</v>
+      </c>
+      <c r="R38" s="29">
+        <v>0</v>
+      </c>
+      <c r="S38" s="29">
+        <v>0</v>
+      </c>
+      <c r="T38" s="29">
+        <v>0</v>
+      </c>
+      <c r="U38" s="29">
+        <v>0</v>
+      </c>
+      <c r="V38" s="29">
+        <v>0</v>
+      </c>
+      <c r="W38" s="29">
+        <v>0</v>
+      </c>
+      <c r="X38" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="81"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="30"/>
+      <c r="C39" s="80">
+        <v>3</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="29">
+        <v>2400</v>
+      </c>
+      <c r="I39" s="29">
+        <v>2800</v>
+      </c>
+      <c r="J39" s="29">
+        <v>0</v>
+      </c>
+      <c r="K39" s="29">
+        <v>5200</v>
+      </c>
+      <c r="L39" s="29">
+        <v>0</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N39" s="29">
+        <v>0</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q39" s="29">
+        <v>0</v>
+      </c>
+      <c r="R39" s="29">
+        <v>0</v>
+      </c>
+      <c r="S39" s="29">
+        <v>0</v>
+      </c>
+      <c r="T39" s="29">
+        <v>0</v>
+      </c>
+      <c r="U39" s="29">
+        <v>0</v>
+      </c>
+      <c r="V39" s="29">
+        <v>0</v>
+      </c>
+      <c r="W39" s="29">
+        <v>0</v>
+      </c>
+      <c r="X39" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="81"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
+      <c r="C40" s="80">
+        <v>4</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="29">
+        <v>73840</v>
+      </c>
+      <c r="I40" s="29">
+        <v>108476</v>
+      </c>
+      <c r="J40" s="29">
+        <v>0</v>
+      </c>
+      <c r="K40" s="29">
+        <v>182316</v>
+      </c>
+      <c r="L40" s="29">
+        <v>0</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N40" s="29">
+        <v>0</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q40" s="29">
+        <v>0</v>
+      </c>
+      <c r="R40" s="29">
+        <v>0</v>
+      </c>
+      <c r="S40" s="29">
+        <v>0</v>
+      </c>
+      <c r="T40" s="29">
+        <v>0</v>
+      </c>
+      <c r="U40" s="29">
+        <v>0</v>
+      </c>
+      <c r="V40" s="29">
+        <v>0</v>
+      </c>
+      <c r="W40" s="29">
+        <v>0</v>
+      </c>
+      <c r="X40" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="81"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B41" s="30"/>
+      <c r="C41" s="80">
+        <v>5</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="29">
+        <v>23740</v>
+      </c>
+      <c r="I41" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J41" s="29">
+        <v>0</v>
+      </c>
+      <c r="K41" s="29">
+        <v>38740</v>
+      </c>
+      <c r="L41" s="29">
+        <v>0</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N41" s="29">
+        <v>0</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q41" s="29">
+        <v>0</v>
+      </c>
+      <c r="R41" s="29">
+        <v>0</v>
+      </c>
+      <c r="S41" s="29">
+        <v>0</v>
+      </c>
+      <c r="T41" s="29">
+        <v>0</v>
+      </c>
+      <c r="U41" s="29">
+        <v>0</v>
+      </c>
+      <c r="V41" s="29">
+        <v>0</v>
+      </c>
+      <c r="W41" s="29">
+        <v>0</v>
+      </c>
+      <c r="X41" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="81"/>
+    </row>
+    <row r="42" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B42" s="25"/>
+      <c r="C42" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="28">
+        <v>34970</v>
+      </c>
+      <c r="I42" s="28">
+        <v>64230</v>
+      </c>
+      <c r="J42" s="28">
+        <v>0</v>
+      </c>
+      <c r="K42" s="28">
+        <v>99200</v>
+      </c>
+      <c r="L42" s="28">
+        <v>150</v>
+      </c>
+      <c r="M42" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="N42" s="28">
+        <v>0</v>
+      </c>
+      <c r="O42" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>54</v>
+      </c>
+      <c r="R42" s="28">
+        <v>0</v>
+      </c>
+      <c r="S42" s="28">
+        <v>54</v>
+      </c>
+      <c r="T42" s="28">
+        <v>0</v>
+      </c>
+      <c r="U42" s="28">
+        <v>0</v>
+      </c>
+      <c r="V42" s="28">
+        <v>0</v>
+      </c>
+      <c r="W42" s="28">
+        <v>0</v>
+      </c>
+      <c r="X42" s="28">
+        <v>54</v>
+      </c>
+      <c r="Y42" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="79"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+      <c r="C43" s="80">
+        <v>1</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="29">
+        <v>19700</v>
+      </c>
+      <c r="I43" s="29">
+        <v>38300</v>
+      </c>
+      <c r="J43" s="29">
+        <v>0</v>
+      </c>
+      <c r="K43" s="29">
+        <v>58000</v>
+      </c>
+      <c r="L43" s="29">
+        <v>0</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N43" s="29">
+        <v>0</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q43" s="29">
+        <v>0</v>
+      </c>
+      <c r="R43" s="29">
+        <v>0</v>
+      </c>
+      <c r="S43" s="29">
+        <v>0</v>
+      </c>
+      <c r="T43" s="29">
+        <v>0</v>
+      </c>
+      <c r="U43" s="29">
+        <v>0</v>
+      </c>
+      <c r="V43" s="29">
+        <v>0</v>
+      </c>
+      <c r="W43" s="29">
+        <v>0</v>
+      </c>
+      <c r="X43" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="81"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B44" s="30"/>
+      <c r="C44" s="80">
+        <v>2</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="29">
+        <v>2200</v>
+      </c>
+      <c r="I44" s="29">
+        <v>2500</v>
+      </c>
+      <c r="J44" s="29">
+        <v>0</v>
+      </c>
+      <c r="K44" s="29">
+        <v>4700</v>
+      </c>
+      <c r="L44" s="29">
+        <v>0</v>
+      </c>
+      <c r="M44" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N44" s="29">
+        <v>0</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q44" s="29">
+        <v>0</v>
+      </c>
+      <c r="R44" s="29">
+        <v>0</v>
+      </c>
+      <c r="S44" s="29">
+        <v>0</v>
+      </c>
+      <c r="T44" s="29">
+        <v>0</v>
+      </c>
+      <c r="U44" s="29">
+        <v>0</v>
+      </c>
+      <c r="V44" s="29">
+        <v>0</v>
+      </c>
+      <c r="W44" s="29">
+        <v>0</v>
+      </c>
+      <c r="X44" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="81"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B45" s="30"/>
+      <c r="C45" s="80">
+        <v>3</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="29">
+        <v>2740</v>
+      </c>
+      <c r="I45" s="29">
+        <v>3860</v>
+      </c>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="29">
+        <v>6600</v>
+      </c>
+      <c r="L45" s="29">
+        <v>0</v>
+      </c>
+      <c r="M45" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N45" s="29">
+        <v>0</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q45" s="29">
+        <v>0</v>
+      </c>
+      <c r="R45" s="29">
+        <v>0</v>
+      </c>
+      <c r="S45" s="29">
+        <v>0</v>
+      </c>
+      <c r="T45" s="29">
+        <v>0</v>
+      </c>
+      <c r="U45" s="29">
+        <v>0</v>
+      </c>
+      <c r="V45" s="29">
+        <v>0</v>
+      </c>
+      <c r="W45" s="29">
+        <v>0</v>
+      </c>
+      <c r="X45" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="81"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B46" s="30"/>
+      <c r="C46" s="80">
+        <v>4</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="29">
+        <v>10400</v>
+      </c>
+      <c r="I46" s="29">
+        <v>43200</v>
+      </c>
+      <c r="J46" s="29">
+        <v>0</v>
+      </c>
+      <c r="K46" s="29">
+        <v>53600</v>
+      </c>
+      <c r="L46" s="29">
+        <v>300</v>
+      </c>
+      <c r="M46" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="N46" s="29">
+        <v>0</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q46" s="29">
         <v>108</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="V6" s="32"/>
+      <c r="R46" s="29">
+        <v>0</v>
+      </c>
+      <c r="S46" s="29">
+        <v>108</v>
+      </c>
+      <c r="T46" s="29">
+        <v>0</v>
+      </c>
+      <c r="U46" s="29">
+        <v>0</v>
+      </c>
+      <c r="V46" s="29">
+        <v>0</v>
+      </c>
+      <c r="W46" s="29">
+        <v>0</v>
+      </c>
+      <c r="X46" s="29">
+        <v>108</v>
+      </c>
+      <c r="Y46" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="81"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="32" t="s">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B47" s="30"/>
+      <c r="C47" s="80">
+        <v>5</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="29">
+        <v>28000</v>
+      </c>
+      <c r="I47" s="29">
+        <v>31200</v>
+      </c>
+      <c r="J47" s="29">
+        <v>0</v>
+      </c>
+      <c r="K47" s="29">
+        <v>59200</v>
+      </c>
+      <c r="L47" s="29">
+        <v>0</v>
+      </c>
+      <c r="M47" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N47" s="29">
+        <v>0</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q47" s="29">
+        <v>0</v>
+      </c>
+      <c r="R47" s="29">
+        <v>0</v>
+      </c>
+      <c r="S47" s="29">
+        <v>0</v>
+      </c>
+      <c r="T47" s="29">
+        <v>0</v>
+      </c>
+      <c r="U47" s="29">
+        <v>0</v>
+      </c>
+      <c r="V47" s="29">
+        <v>0</v>
+      </c>
+      <c r="W47" s="29">
+        <v>0</v>
+      </c>
+      <c r="X47" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="81"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B48" s="30"/>
+      <c r="C48" s="80">
+        <v>6</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="29">
+        <v>6900</v>
+      </c>
+      <c r="I48" s="29">
+        <v>9400</v>
+      </c>
+      <c r="J48" s="29">
+        <v>0</v>
+      </c>
+      <c r="K48" s="29">
+        <v>16300</v>
+      </c>
+      <c r="L48" s="29">
+        <v>0</v>
+      </c>
+      <c r="M48" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N48" s="29">
+        <v>0</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q48" s="29">
+        <v>0</v>
+      </c>
+      <c r="R48" s="29">
+        <v>0</v>
+      </c>
+      <c r="S48" s="29">
+        <v>0</v>
+      </c>
+      <c r="T48" s="29">
+        <v>0</v>
+      </c>
+      <c r="U48" s="29">
+        <v>0</v>
+      </c>
+      <c r="V48" s="29">
+        <v>0</v>
+      </c>
+      <c r="W48" s="29">
+        <v>0</v>
+      </c>
+      <c r="X48" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="81"/>
+    </row>
+    <row r="49" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B49" s="25"/>
+      <c r="C49" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="28">
+        <v>56425</v>
+      </c>
+      <c r="I49" s="28">
+        <v>64980</v>
+      </c>
+      <c r="J49" s="28">
+        <v>1180200</v>
+      </c>
+      <c r="K49" s="28">
+        <v>1301605</v>
+      </c>
+      <c r="L49" s="28">
+        <v>0</v>
+      </c>
+      <c r="M49" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="N49" s="28">
+        <v>200</v>
+      </c>
+      <c r="O49" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q49" s="28">
+        <v>0</v>
+      </c>
+      <c r="R49" s="28">
+        <v>0</v>
+      </c>
+      <c r="S49" s="28">
+        <v>0</v>
+      </c>
+      <c r="T49" s="28">
+        <v>64</v>
+      </c>
+      <c r="U49" s="28">
+        <v>0</v>
+      </c>
+      <c r="V49" s="28">
+        <v>64</v>
+      </c>
+      <c r="W49" s="28">
+        <v>0</v>
+      </c>
+      <c r="X49" s="28">
+        <v>64</v>
+      </c>
+      <c r="Y49" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="79"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B50" s="25"/>
+      <c r="C50" s="80">
+        <v>1</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="29">
+        <v>4000</v>
+      </c>
+      <c r="I50" s="29">
+        <v>2000</v>
+      </c>
+      <c r="J50" s="29">
+        <v>0</v>
+      </c>
+      <c r="K50" s="29">
+        <v>6000</v>
+      </c>
+      <c r="L50" s="29">
+        <v>0</v>
+      </c>
+      <c r="M50" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N50" s="29">
+        <v>0</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q50" s="29">
+        <v>0</v>
+      </c>
+      <c r="R50" s="29">
+        <v>0</v>
+      </c>
+      <c r="S50" s="29">
+        <v>0</v>
+      </c>
+      <c r="T50" s="29">
+        <v>0</v>
+      </c>
+      <c r="U50" s="29">
+        <v>0</v>
+      </c>
+      <c r="V50" s="29">
+        <v>0</v>
+      </c>
+      <c r="W50" s="29">
+        <v>0</v>
+      </c>
+      <c r="X50" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="81"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B51" s="30"/>
+      <c r="C51" s="80">
+        <v>2</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="29">
+        <v>400</v>
+      </c>
+      <c r="I51" s="29">
+        <v>800</v>
+      </c>
+      <c r="J51" s="29">
+        <v>0</v>
+      </c>
+      <c r="K51" s="29">
+        <v>1200</v>
+      </c>
+      <c r="L51" s="29">
+        <v>0</v>
+      </c>
+      <c r="M51" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N51" s="29">
+        <v>0</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q51" s="29">
+        <v>0</v>
+      </c>
+      <c r="R51" s="29">
+        <v>0</v>
+      </c>
+      <c r="S51" s="29">
+        <v>0</v>
+      </c>
+      <c r="T51" s="29">
+        <v>0</v>
+      </c>
+      <c r="U51" s="29">
+        <v>0</v>
+      </c>
+      <c r="V51" s="29">
+        <v>0</v>
+      </c>
+      <c r="W51" s="29">
+        <v>0</v>
+      </c>
+      <c r="X51" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="81"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B52" s="30"/>
+      <c r="C52" s="80">
+        <v>3</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" s="29">
+        <v>400</v>
+      </c>
+      <c r="I52" s="29">
+        <v>240</v>
+      </c>
+      <c r="J52" s="29">
+        <v>0</v>
+      </c>
+      <c r="K52" s="29">
+        <v>640</v>
+      </c>
+      <c r="L52" s="29">
+        <v>0</v>
+      </c>
+      <c r="M52" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N52" s="29">
+        <v>0</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q52" s="29">
+        <v>0</v>
+      </c>
+      <c r="R52" s="29">
+        <v>0</v>
+      </c>
+      <c r="S52" s="29">
+        <v>0</v>
+      </c>
+      <c r="T52" s="29">
+        <v>0</v>
+      </c>
+      <c r="U52" s="29">
+        <v>0</v>
+      </c>
+      <c r="V52" s="29">
+        <v>0</v>
+      </c>
+      <c r="W52" s="29">
+        <v>0</v>
+      </c>
+      <c r="X52" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="81"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B53" s="30"/>
+      <c r="C53" s="80">
+        <v>4</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="29">
+        <v>2600</v>
+      </c>
+      <c r="I53" s="29">
+        <v>2000</v>
+      </c>
+      <c r="J53" s="29">
+        <v>0</v>
+      </c>
+      <c r="K53" s="29">
+        <v>4600</v>
+      </c>
+      <c r="L53" s="29">
+        <v>0</v>
+      </c>
+      <c r="M53" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N53" s="29">
+        <v>0</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q53" s="29">
+        <v>0</v>
+      </c>
+      <c r="R53" s="29">
+        <v>0</v>
+      </c>
+      <c r="S53" s="29">
+        <v>0</v>
+      </c>
+      <c r="T53" s="29">
+        <v>0</v>
+      </c>
+      <c r="U53" s="29">
+        <v>0</v>
+      </c>
+      <c r="V53" s="29">
+        <v>0</v>
+      </c>
+      <c r="W53" s="29">
+        <v>0</v>
+      </c>
+      <c r="X53" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="81"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B54" s="30"/>
+      <c r="C54" s="80">
+        <v>5</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="29">
+        <v>6600</v>
+      </c>
+      <c r="I54" s="29">
+        <v>6200</v>
+      </c>
+      <c r="J54" s="29">
+        <v>0</v>
+      </c>
+      <c r="K54" s="29">
+        <v>12800</v>
+      </c>
+      <c r="L54" s="29">
+        <v>0</v>
+      </c>
+      <c r="M54" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="N54" s="29">
+        <v>0</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q54" s="29">
+        <v>0</v>
+      </c>
+      <c r="R54" s="29">
+        <v>0</v>
+      </c>
+      <c r="S54" s="29">
+        <v>0</v>
+      </c>
+      <c r="T54" s="29">
+        <v>0</v>
+      </c>
+      <c r="U54" s="29">
+        <v>0</v>
+      </c>
+      <c r="V54" s="29">
+        <v>0</v>
+      </c>
+      <c r="W54" s="29">
+        <v>0</v>
+      </c>
+      <c r="X54" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="26"/>
+      <c r="AC54" s="81"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B55" s="30"/>
+      <c r="C55" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="29">
+        <v>600</v>
+      </c>
+      <c r="I55" s="29">
+        <v>200</v>
+      </c>
+      <c r="J55" s="29">
+        <v>0</v>
+      </c>
+      <c r="K55" s="29">
+        <v>800</v>
+      </c>
+      <c r="L55" s="29">
+        <v>0</v>
+      </c>
+      <c r="M55" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="N55" s="29">
+        <v>0</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q55" s="29">
+        <v>0</v>
+      </c>
+      <c r="R55" s="29">
+        <v>0</v>
+      </c>
+      <c r="S55" s="29">
+        <v>0</v>
+      </c>
+      <c r="T55" s="29">
+        <v>0</v>
+      </c>
+      <c r="U55" s="29">
+        <v>0</v>
+      </c>
+      <c r="V55" s="29">
+        <v>0</v>
+      </c>
+      <c r="W55" s="29">
+        <v>0</v>
+      </c>
+      <c r="X55" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="81"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B56" s="30"/>
+      <c r="C56" s="80">
+        <v>6</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H56" s="29">
+        <v>15950</v>
+      </c>
+      <c r="I56" s="29">
+        <v>23600</v>
+      </c>
+      <c r="J56" s="29">
+        <v>0</v>
+      </c>
+      <c r="K56" s="29">
+        <v>39550</v>
+      </c>
+      <c r="L56" s="29">
+        <v>0</v>
+      </c>
+      <c r="M56" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N56" s="29">
+        <v>0</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q56" s="29">
+        <v>0</v>
+      </c>
+      <c r="R56" s="29">
+        <v>0</v>
+      </c>
+      <c r="S56" s="29">
+        <v>0</v>
+      </c>
+      <c r="T56" s="29">
+        <v>0</v>
+      </c>
+      <c r="U56" s="29">
+        <v>0</v>
+      </c>
+      <c r="V56" s="29">
+        <v>0</v>
+      </c>
+      <c r="W56" s="29">
+        <v>0</v>
+      </c>
+      <c r="X56" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="81"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B57" s="30"/>
+      <c r="C57" s="80">
+        <v>7</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H57" s="29">
+        <v>81300</v>
+      </c>
+      <c r="I57" s="29">
+        <v>92920</v>
+      </c>
+      <c r="J57" s="29">
+        <v>2360400</v>
+      </c>
+      <c r="K57" s="29">
+        <v>2534620</v>
+      </c>
+      <c r="L57" s="29">
+        <v>0</v>
+      </c>
+      <c r="M57" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N57" s="29">
+        <v>400</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q57" s="29">
+        <v>0</v>
+      </c>
+      <c r="R57" s="29">
+        <v>0</v>
+      </c>
+      <c r="S57" s="29">
+        <v>0</v>
+      </c>
+      <c r="T57" s="29">
         <v>128</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="V7" s="32" t="s">
-        <v>127</v>
-      </c>
+      <c r="U57" s="29">
+        <v>0</v>
+      </c>
+      <c r="V57" s="29">
+        <v>128</v>
+      </c>
+      <c r="W57" s="29">
+        <v>0</v>
+      </c>
+      <c r="X57" s="29">
+        <v>128</v>
+      </c>
+      <c r="Y57" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="81"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B58" s="30"/>
+      <c r="C58" s="80">
+        <v>8</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="29">
+        <v>0</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+      <c r="J58" s="29">
+        <v>0</v>
+      </c>
+      <c r="K58" s="29">
+        <v>0</v>
+      </c>
+      <c r="L58" s="29">
+        <v>0</v>
+      </c>
+      <c r="M58" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N58" s="29">
+        <v>0</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q58" s="29">
+        <v>0</v>
+      </c>
+      <c r="R58" s="29">
+        <v>0</v>
+      </c>
+      <c r="S58" s="29">
+        <v>0</v>
+      </c>
+      <c r="T58" s="29">
+        <v>0</v>
+      </c>
+      <c r="U58" s="29">
+        <v>0</v>
+      </c>
+      <c r="V58" s="29">
+        <v>0</v>
+      </c>
+      <c r="W58" s="29">
+        <v>0</v>
+      </c>
+      <c r="X58" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="81"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="31"/>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B59" s="30"/>
+      <c r="C59" s="80">
+        <v>9</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="29">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="29">
+        <v>2000</v>
+      </c>
+      <c r="J59" s="29">
+        <v>0</v>
+      </c>
+      <c r="K59" s="29">
+        <v>3000</v>
+      </c>
+      <c r="L59" s="29">
+        <v>0</v>
+      </c>
+      <c r="M59" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N59" s="29">
+        <v>0</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q59" s="29">
+        <v>0</v>
+      </c>
+      <c r="R59" s="29">
+        <v>0</v>
+      </c>
+      <c r="S59" s="29">
+        <v>0</v>
+      </c>
+      <c r="T59" s="29">
+        <v>0</v>
+      </c>
+      <c r="U59" s="29">
+        <v>0</v>
+      </c>
+      <c r="V59" s="29">
+        <v>0</v>
+      </c>
+      <c r="W59" s="29">
+        <v>0</v>
+      </c>
+      <c r="X59" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="81"/>
+    </row>
+    <row r="60" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B60" s="25"/>
+      <c r="C60" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="28">
+        <v>0</v>
+      </c>
+      <c r="I60" s="28">
+        <v>0</v>
+      </c>
+      <c r="J60" s="28">
+        <v>0</v>
+      </c>
+      <c r="K60" s="28">
+        <v>0</v>
+      </c>
+      <c r="L60" s="28">
+        <v>0</v>
+      </c>
+      <c r="M60" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="N60" s="28">
+        <v>0</v>
+      </c>
+      <c r="O60" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P60" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q60" s="28">
+        <v>0</v>
+      </c>
+      <c r="R60" s="28">
+        <v>0</v>
+      </c>
+      <c r="S60" s="28">
+        <v>0</v>
+      </c>
+      <c r="T60" s="28">
+        <v>0</v>
+      </c>
+      <c r="U60" s="28">
+        <v>0</v>
+      </c>
+      <c r="V60" s="28">
+        <v>0</v>
+      </c>
+      <c r="W60" s="28">
+        <v>0</v>
+      </c>
+      <c r="X60" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="24"/>
+      <c r="AC60" s="79"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B61" s="25"/>
+      <c r="C61" s="77">
+        <v>1</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H61" s="29">
+        <v>0</v>
+      </c>
+      <c r="I61" s="29">
+        <v>0</v>
+      </c>
+      <c r="J61" s="29">
+        <v>0</v>
+      </c>
+      <c r="K61" s="29">
+        <v>0</v>
+      </c>
+      <c r="L61" s="29">
+        <v>0</v>
+      </c>
+      <c r="M61" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N61" s="29">
+        <v>0</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q61" s="29">
+        <v>0</v>
+      </c>
+      <c r="R61" s="29">
+        <v>0</v>
+      </c>
+      <c r="S61" s="29">
+        <v>0</v>
+      </c>
+      <c r="T61" s="29">
+        <v>0</v>
+      </c>
+      <c r="U61" s="29">
+        <v>0</v>
+      </c>
+      <c r="V61" s="29">
+        <v>0</v>
+      </c>
+      <c r="W61" s="29">
+        <v>0</v>
+      </c>
+      <c r="X61" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="81"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B62" s="30"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H62" s="29">
+        <v>0</v>
+      </c>
+      <c r="I62" s="29">
+        <v>0</v>
+      </c>
+      <c r="J62" s="29">
+        <v>0</v>
+      </c>
+      <c r="K62" s="29">
+        <v>0</v>
+      </c>
+      <c r="L62" s="29">
+        <v>0</v>
+      </c>
+      <c r="M62" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N62" s="29">
+        <v>0</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q62" s="29">
+        <v>0</v>
+      </c>
+      <c r="R62" s="29">
+        <v>0</v>
+      </c>
+      <c r="S62" s="29">
+        <v>0</v>
+      </c>
+      <c r="T62" s="29">
+        <v>0</v>
+      </c>
+      <c r="U62" s="29">
+        <v>0</v>
+      </c>
+      <c r="V62" s="29">
+        <v>0</v>
+      </c>
+      <c r="W62" s="29">
+        <v>0</v>
+      </c>
+      <c r="X62" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="81"/>
+    </row>
+    <row r="63" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="30"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" s="85">
+        <v>0</v>
+      </c>
+      <c r="I63" s="85">
+        <v>0</v>
+      </c>
+      <c r="J63" s="85">
+        <v>0</v>
+      </c>
+      <c r="K63" s="85">
+        <v>0</v>
+      </c>
+      <c r="L63" s="85">
+        <v>0</v>
+      </c>
+      <c r="M63" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="N63" s="85">
+        <v>0</v>
+      </c>
+      <c r="O63" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="P63" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q63" s="85">
+        <v>0</v>
+      </c>
+      <c r="R63" s="85">
+        <v>0</v>
+      </c>
+      <c r="S63" s="85">
+        <v>0</v>
+      </c>
+      <c r="T63" s="85">
+        <v>0</v>
+      </c>
+      <c r="U63" s="85">
+        <v>0</v>
+      </c>
+      <c r="V63" s="85">
+        <v>0</v>
+      </c>
+      <c r="W63" s="85">
+        <v>0</v>
+      </c>
+      <c r="X63" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="84">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="84">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="84"/>
+      <c r="AC63" s="87"/>
+    </row>
+    <row r="64" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="30"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="31"/>
+      <c r="Y64" s="31"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="W7:W8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="L2:R2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -15,13 +15,14 @@
     <sheet name="mau_baocao_xnt" sheetId="2" r:id="rId1"/>
     <sheet name="bc_nxt" sheetId="1" r:id="rId2"/>
     <sheet name="t_thu_xd_theo_n_vu" sheetId="3" r:id="rId3"/>
+    <sheet name="bc_ttnl_theo_kh" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="205">
   <si>
     <t>CXD</t>
   </si>
@@ -603,6 +604,42 @@
   </si>
   <si>
     <t>02:45:00</t>
+  </si>
+  <si>
+    <t>Nhập xuất tồn</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Phân cấp</t>
+  </si>
+  <si>
+    <t>Cục xăng dầu</t>
+  </si>
+  <si>
+    <t>Tiêu thụ cho xe, máy</t>
+  </si>
+  <si>
+    <t>Bảo quản</t>
+  </si>
+  <si>
+    <t>F bộ</t>
+  </si>
+  <si>
+    <t>Quân chủng</t>
+  </si>
+  <si>
+    <t>ĐV Khác</t>
   </si>
 </sst>
 </file>
@@ -919,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,6 +1056,46 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,9 +1120,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,23 +1129,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,14 +1147,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,25 +1159,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1417,158 +1460,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="U2" s="61" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="U2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="62"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:23" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="55" t="s">
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="57"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="64"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="71" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51" t="s">
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="51" t="s">
+      <c r="S6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="51" t="s">
+      <c r="U6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="51" t="s">
+      <c r="V6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="53" t="s">
+      <c r="W6" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="65"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
       <c r="P7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="54"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="74"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1746,11 +1789,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="C2:G2"/>
@@ -1767,12 +1811,11 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1781,26 +1824,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AM80"/>
+  <dimension ref="B1:AS80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="34" width="9.140625" style="12"/>
     <col min="35" max="36" width="0" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="0.7109375" customWidth="1"/>
     <col min="38" max="38" width="1.140625" customWidth="1"/>
     <col min="39" max="39" width="2.28515625" customWidth="1"/>
+    <col min="42" max="42" width="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="G1" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+    </row>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="10"/>
@@ -1808,14 +1875,40 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="F6" s="66" t="s">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AP5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="F6" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS6" s="65">
+        <v>45563.665362233798</v>
+      </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
       <c r="F7" s="11" t="s">
         <v>103</v>
       </c>
@@ -1903,8 +1996,20 @@
       <c r="AH7" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="65">
+        <v>45563.665712997688</v>
+      </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I8" s="13" t="s">
         <v>94</v>
       </c>
@@ -1983,8 +2088,20 @@
       <c r="AH8" s="13" t="s">
         <v>102</v>
       </c>
+      <c r="AP8">
+        <v>6</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS8" s="65">
+        <v>45563.667999803241</v>
+      </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -2007,7 +2124,7 @@
         <v>320000</v>
       </c>
       <c r="I9" s="12">
-        <v>0</v>
+        <v>123456</v>
       </c>
       <c r="J9" s="12">
         <v>8348</v>
@@ -2052,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="12">
-        <v>36579</v>
+        <v>47808</v>
       </c>
       <c r="Y9" s="12">
         <v>2000</v>
@@ -2099,8 +2216,20 @@
       <c r="AM9">
         <v>4</v>
       </c>
+      <c r="AP9">
+        <v>7</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS9" s="65">
+        <v>45563.668675555557</v>
+      </c>
     </row>
-    <row r="10" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>4</v>
       </c>
@@ -2123,7 +2252,7 @@
         <v>320000</v>
       </c>
       <c r="I10" s="11">
-        <v>0</v>
+        <v>123456</v>
       </c>
       <c r="J10" s="11">
         <v>8348</v>
@@ -2168,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="11">
-        <v>36579</v>
+        <v>47808</v>
       </c>
       <c r="Y10" s="11">
         <v>2000</v>
@@ -2215,8 +2344,20 @@
       <c r="AM10" s="8">
         <v>4</v>
       </c>
+      <c r="AP10" s="8">
+        <v>13</v>
+      </c>
+      <c r="AQ10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS10" s="66">
+        <v>45563.685693125</v>
+      </c>
     </row>
-    <row r="11" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>1</v>
       </c>
@@ -2239,7 +2380,7 @@
         <v>80000</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>123456</v>
       </c>
       <c r="J11" s="11">
         <v>8348</v>
@@ -2284,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="11">
-        <v>2373</v>
+        <v>2439</v>
       </c>
       <c r="Y11" s="11">
         <v>2000</v>
@@ -2331,8 +2472,20 @@
       <c r="AM11" s="8">
         <v>1</v>
       </c>
+      <c r="AP11" s="8">
+        <v>18</v>
+      </c>
+      <c r="AQ11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="66">
+        <v>45568.69137576389</v>
+      </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -2355,7 +2508,7 @@
         <v>40000</v>
       </c>
       <c r="I12" s="12">
-        <v>0</v>
+        <v>123456</v>
       </c>
       <c r="J12" s="12">
         <v>8348</v>
@@ -2400,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="12">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="Y12" s="12">
         <v>2000</v>
@@ -2447,8 +2600,20 @@
       <c r="AM12">
         <v>1</v>
       </c>
+      <c r="AP12">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS12" s="65">
+        <v>45569.305971030095</v>
+      </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
@@ -2516,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="12">
-        <v>2200</v>
+        <v>2207</v>
       </c>
       <c r="Y13" s="12">
         <v>0</v>
@@ -2563,8 +2728,20 @@
       <c r="AM13">
         <v>1</v>
       </c>
+      <c r="AP13">
+        <v>24</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS13" s="65">
+        <v>45569.306863240738</v>
+      </c>
     </row>
-    <row r="14" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>2</v>
       </c>
@@ -2632,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="11">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="Y14" s="11">
         <v>0</v>
@@ -2679,8 +2856,20 @@
       <c r="AM14" s="8">
         <v>2</v>
       </c>
+      <c r="AP14" s="8">
+        <v>29</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS14" s="66">
+        <v>45621.427765034721</v>
+      </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
@@ -2748,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="Y15" s="12">
         <v>0</v>
@@ -2795,8 +2984,20 @@
       <c r="AM15">
         <v>2</v>
       </c>
+      <c r="AP15">
+        <v>30</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS15" s="65">
+        <v>45621.430428171298</v>
+      </c>
     </row>
-    <row r="16" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>3</v>
       </c>
@@ -2864,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="11">
-        <v>34190</v>
+        <v>45225</v>
       </c>
       <c r="Y16" s="11">
         <v>0</v>
@@ -2911,8 +3112,20 @@
       <c r="AM16" s="8">
         <v>3</v>
       </c>
+      <c r="AP16" s="8">
+        <v>31</v>
+      </c>
+      <c r="AQ16" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS16" s="66">
+        <v>45621.588748182869</v>
+      </c>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3</v>
       </c>
@@ -2980,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="12">
-        <v>8400</v>
+        <v>9420</v>
       </c>
       <c r="Y17" s="12">
         <v>0</v>
@@ -3027,8 +3240,20 @@
       <c r="AM17">
         <v>3</v>
       </c>
+      <c r="AP17">
+        <v>32</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS17" s="65">
+        <v>45621.591304594906</v>
+      </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3</v>
       </c>
@@ -3096,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="12">
-        <v>5900</v>
+        <v>12600</v>
       </c>
       <c r="Y18" s="12">
         <v>0</v>
@@ -3143,8 +3368,20 @@
       <c r="AM18">
         <v>3</v>
       </c>
+      <c r="AP18">
+        <v>33</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS18" s="65">
+        <v>45621.593696354168</v>
+      </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3</v>
       </c>
@@ -3212,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="12">
-        <v>19890</v>
+        <v>23205</v>
       </c>
       <c r="Y19" s="12">
         <v>0</v>
@@ -3260,7 +3497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>4</v>
       </c>
@@ -3376,7 +3613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>4</v>
       </c>
@@ -3492,7 +3729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4</v>
       </c>
@@ -3608,12 +3845,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="F24" s="66" t="s">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="F24" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="13" t="s">
         <v>26</v>
       </c>
@@ -3693,7 +3930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
       <c r="F25" s="11" t="s">
         <v>104</v>
       </c>
@@ -3782,7 +4019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>5</v>
       </c>
@@ -3898,7 +4135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>4</v>
       </c>
@@ -4014,7 +4251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>1</v>
       </c>
@@ -4130,7 +4367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
@@ -4246,7 +4483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1</v>
       </c>
@@ -4362,7 +4599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
@@ -4478,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
@@ -10163,9 +10400,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F24:H24"/>
+    <mergeCell ref="G1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10179,8 +10417,8 @@
   </sheetPr>
   <dimension ref="B2:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10207,8 +10445,7 @@
     <col min="24" max="24" width="10" style="15" customWidth="1"/>
     <col min="25" max="25" width="11" style="15" hidden="1" customWidth="1"/>
     <col min="26" max="27" width="12.7109375" style="14" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="6.7109375" style="14" customWidth="1"/>
+    <col min="28" max="29" width="9.28515625" style="14" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
@@ -10218,28 +10455,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="U2" s="69" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="U2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="71"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="87"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="21"/>
     </row>
@@ -10257,113 +10494,113 @@
     <row r="5" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:29" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59" t="s">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="73" t="s">
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73" t="s">
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
       <c r="AA6" s="48"/>
-      <c r="AB6" s="73" t="s">
+      <c r="AB6" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" s="75"/>
+      <c r="AC6" s="90"/>
     </row>
     <row r="7" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
-      <c r="C7" s="64"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="3"/>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51" t="s">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="O7" s="51"/>
+      <c r="O7" s="71"/>
       <c r="P7" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="Q7" s="68" t="s">
+      <c r="Q7" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68" t="s">
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68" t="s">
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="X7" s="68"/>
+      <c r="X7" s="88"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="49"/>
-      <c r="AB7" s="68" t="s">
+      <c r="AB7" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" s="76" t="s">
+      <c r="AC7" s="91" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="64"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="3"/>
       <c r="E8" s="49"/>
       <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="68"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="88"/>
       <c r="L8" s="49" t="s">
         <v>165</v>
       </c>
@@ -10397,17 +10634,17 @@
       <c r="V8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="49"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="76"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="91"/>
     </row>
     <row r="9" spans="2:29" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
-      <c r="C9" s="77"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="37"/>
       <c r="E9" s="35" t="s">
         <v>28</v>
@@ -10479,11 +10716,11 @@
         <v>1</v>
       </c>
       <c r="AB9" s="40"/>
-      <c r="AC9" s="78"/>
+      <c r="AC9" s="54"/>
     </row>
     <row r="10" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="53" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="24"/>
@@ -10557,11 +10794,11 @@
         <v>1</v>
       </c>
       <c r="AB10" s="24"/>
-      <c r="AC10" s="79"/>
+      <c r="AC10" s="55"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
-      <c r="C11" s="80">
+      <c r="C11" s="56">
         <v>1</v>
       </c>
       <c r="D11" s="26"/>
@@ -10635,11 +10872,11 @@
         <v>1</v>
       </c>
       <c r="AB11" s="26"/>
-      <c r="AC11" s="81"/>
+      <c r="AC11" s="57"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D12" s="26"/>
@@ -10713,11 +10950,11 @@
         <v>0</v>
       </c>
       <c r="AB12" s="26"/>
-      <c r="AC12" s="81"/>
+      <c r="AC12" s="57"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D13" s="26"/>
@@ -10791,11 +11028,11 @@
         <v>0</v>
       </c>
       <c r="AB13" s="26"/>
-      <c r="AC13" s="81"/>
+      <c r="AC13" s="57"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D14" s="26"/>
@@ -10869,11 +11106,11 @@
         <v>0</v>
       </c>
       <c r="AB14" s="26"/>
-      <c r="AC14" s="81"/>
+      <c r="AC14" s="57"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
-      <c r="C15" s="80">
+      <c r="C15" s="56">
         <v>2</v>
       </c>
       <c r="D15" s="26"/>
@@ -10947,11 +11184,11 @@
         <v>1</v>
       </c>
       <c r="AB15" s="26"/>
-      <c r="AC15" s="81"/>
+      <c r="AC15" s="57"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
-      <c r="C16" s="80">
+      <c r="C16" s="56">
         <v>3</v>
       </c>
       <c r="D16" s="26"/>
@@ -10979,8 +11216,8 @@
       <c r="L16" s="29">
         <v>0</v>
       </c>
-      <c r="M16" s="46" t="s">
-        <v>186</v>
+      <c r="M16" s="46">
+        <v>0</v>
       </c>
       <c r="N16" s="29">
         <v>0</v>
@@ -11025,11 +11262,11 @@
         <v>1</v>
       </c>
       <c r="AB16" s="26"/>
-      <c r="AC16" s="81"/>
+      <c r="AC16" s="57"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D17" s="26"/>
@@ -11103,11 +11340,11 @@
         <v>0</v>
       </c>
       <c r="AB17" s="26"/>
-      <c r="AC17" s="81"/>
+      <c r="AC17" s="57"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D18" s="26"/>
@@ -11181,11 +11418,11 @@
         <v>0</v>
       </c>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="81"/>
+      <c r="AC18" s="57"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="26"/>
@@ -11259,11 +11496,11 @@
         <v>0</v>
       </c>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="81"/>
+      <c r="AC19" s="57"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
-      <c r="C20" s="80">
+      <c r="C20" s="56">
         <v>4</v>
       </c>
       <c r="D20" s="26"/>
@@ -11337,11 +11574,11 @@
         <v>1</v>
       </c>
       <c r="AB20" s="26"/>
-      <c r="AC20" s="81"/>
+      <c r="AC20" s="57"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D21" s="26"/>
@@ -11415,11 +11652,11 @@
         <v>0</v>
       </c>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="81"/>
+      <c r="AC21" s="57"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D22" s="26"/>
@@ -11493,11 +11730,11 @@
         <v>0</v>
       </c>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="81"/>
+      <c r="AC22" s="57"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
-      <c r="C23" s="80">
+      <c r="C23" s="56">
         <v>5</v>
       </c>
       <c r="D23" s="26"/>
@@ -11571,11 +11808,11 @@
         <v>1</v>
       </c>
       <c r="AB23" s="26"/>
-      <c r="AC23" s="81"/>
+      <c r="AC23" s="57"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
-      <c r="C24" s="80">
+      <c r="C24" s="56">
         <v>6</v>
       </c>
       <c r="D24" s="26"/>
@@ -11649,11 +11886,11 @@
         <v>1</v>
       </c>
       <c r="AB24" s="26"/>
-      <c r="AC24" s="81"/>
+      <c r="AC24" s="57"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
-      <c r="C25" s="80">
+      <c r="C25" s="56">
         <v>7</v>
       </c>
       <c r="D25" s="26"/>
@@ -11727,11 +11964,11 @@
         <v>1</v>
       </c>
       <c r="AB25" s="26"/>
-      <c r="AC25" s="81"/>
+      <c r="AC25" s="57"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
-      <c r="C26" s="80">
+      <c r="C26" s="56">
         <v>8</v>
       </c>
       <c r="D26" s="26"/>
@@ -11805,11 +12042,11 @@
         <v>1</v>
       </c>
       <c r="AB26" s="26"/>
-      <c r="AC26" s="81"/>
+      <c r="AC26" s="57"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
-      <c r="C27" s="80">
+      <c r="C27" s="56">
         <v>9</v>
       </c>
       <c r="D27" s="26"/>
@@ -11883,11 +12120,11 @@
         <v>1</v>
       </c>
       <c r="AB27" s="26"/>
-      <c r="AC27" s="81"/>
+      <c r="AC27" s="57"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
-      <c r="C28" s="80">
+      <c r="C28" s="56">
         <v>10</v>
       </c>
       <c r="D28" s="26"/>
@@ -11961,11 +12198,11 @@
         <v>1</v>
       </c>
       <c r="AB28" s="26"/>
-      <c r="AC28" s="81"/>
+      <c r="AC28" s="57"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
-      <c r="C29" s="80">
+      <c r="C29" s="56">
         <v>11</v>
       </c>
       <c r="D29" s="26"/>
@@ -12039,11 +12276,11 @@
         <v>1</v>
       </c>
       <c r="AB29" s="26"/>
-      <c r="AC29" s="81"/>
+      <c r="AC29" s="57"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
-      <c r="C30" s="80">
+      <c r="C30" s="56">
         <v>12</v>
       </c>
       <c r="D30" s="26"/>
@@ -12117,11 +12354,11 @@
         <v>1</v>
       </c>
       <c r="AB30" s="26"/>
-      <c r="AC30" s="81"/>
+      <c r="AC30" s="57"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
-      <c r="C31" s="80">
+      <c r="C31" s="56">
         <v>13</v>
       </c>
       <c r="D31" s="26"/>
@@ -12195,11 +12432,11 @@
         <v>1</v>
       </c>
       <c r="AB31" s="26"/>
-      <c r="AC31" s="81"/>
+      <c r="AC31" s="57"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
-      <c r="C32" s="80">
+      <c r="C32" s="56">
         <v>14</v>
       </c>
       <c r="D32" s="26"/>
@@ -12273,11 +12510,11 @@
         <v>1</v>
       </c>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="81"/>
+      <c r="AC32" s="57"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
-      <c r="C33" s="80">
+      <c r="C33" s="56">
         <v>15</v>
       </c>
       <c r="D33" s="26"/>
@@ -12351,11 +12588,11 @@
         <v>1</v>
       </c>
       <c r="AB33" s="26"/>
-      <c r="AC33" s="81"/>
+      <c r="AC33" s="57"/>
     </row>
     <row r="34" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B34" s="25"/>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="53" t="s">
         <v>180</v>
       </c>
       <c r="D34" s="24"/>
@@ -12429,11 +12666,11 @@
         <v>1</v>
       </c>
       <c r="AB34" s="24"/>
-      <c r="AC34" s="79"/>
+      <c r="AC34" s="55"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
-      <c r="C35" s="80">
+      <c r="C35" s="56">
         <v>1</v>
       </c>
       <c r="D35" s="26"/>
@@ -12507,11 +12744,11 @@
         <v>1</v>
       </c>
       <c r="AB35" s="26"/>
-      <c r="AC35" s="81"/>
+      <c r="AC35" s="57"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D36" s="26"/>
@@ -12585,11 +12822,11 @@
         <v>0</v>
       </c>
       <c r="AB36" s="26"/>
-      <c r="AC36" s="81"/>
+      <c r="AC36" s="57"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D37" s="26"/>
@@ -12663,11 +12900,11 @@
         <v>0</v>
       </c>
       <c r="AB37" s="26"/>
-      <c r="AC37" s="81"/>
+      <c r="AC37" s="57"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
-      <c r="C38" s="80">
+      <c r="C38" s="56">
         <v>2</v>
       </c>
       <c r="D38" s="26"/>
@@ -12741,11 +12978,11 @@
         <v>1</v>
       </c>
       <c r="AB38" s="26"/>
-      <c r="AC38" s="81"/>
+      <c r="AC38" s="57"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
-      <c r="C39" s="80">
+      <c r="C39" s="56">
         <v>3</v>
       </c>
       <c r="D39" s="26"/>
@@ -12819,11 +13056,11 @@
         <v>1</v>
       </c>
       <c r="AB39" s="26"/>
-      <c r="AC39" s="81"/>
+      <c r="AC39" s="57"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
-      <c r="C40" s="80">
+      <c r="C40" s="56">
         <v>4</v>
       </c>
       <c r="D40" s="26"/>
@@ -12897,11 +13134,11 @@
         <v>1</v>
       </c>
       <c r="AB40" s="26"/>
-      <c r="AC40" s="81"/>
+      <c r="AC40" s="57"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
-      <c r="C41" s="80">
+      <c r="C41" s="56">
         <v>5</v>
       </c>
       <c r="D41" s="26"/>
@@ -12975,11 +13212,11 @@
         <v>1</v>
       </c>
       <c r="AB41" s="26"/>
-      <c r="AC41" s="81"/>
+      <c r="AC41" s="57"/>
     </row>
     <row r="42" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B42" s="25"/>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="53" t="s">
         <v>181</v>
       </c>
       <c r="D42" s="24"/>
@@ -13053,11 +13290,11 @@
         <v>1</v>
       </c>
       <c r="AB42" s="24"/>
-      <c r="AC42" s="79"/>
+      <c r="AC42" s="55"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" s="25"/>
-      <c r="C43" s="80">
+      <c r="C43" s="56">
         <v>1</v>
       </c>
       <c r="D43" s="26"/>
@@ -13131,11 +13368,11 @@
         <v>1</v>
       </c>
       <c r="AB43" s="26"/>
-      <c r="AC43" s="81"/>
+      <c r="AC43" s="57"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
-      <c r="C44" s="80">
+      <c r="C44" s="56">
         <v>2</v>
       </c>
       <c r="D44" s="26"/>
@@ -13209,11 +13446,11 @@
         <v>1</v>
       </c>
       <c r="AB44" s="26"/>
-      <c r="AC44" s="81"/>
+      <c r="AC44" s="57"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
-      <c r="C45" s="80">
+      <c r="C45" s="56">
         <v>3</v>
       </c>
       <c r="D45" s="26"/>
@@ -13287,11 +13524,11 @@
         <v>1</v>
       </c>
       <c r="AB45" s="26"/>
-      <c r="AC45" s="81"/>
+      <c r="AC45" s="57"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
-      <c r="C46" s="80">
+      <c r="C46" s="56">
         <v>4</v>
       </c>
       <c r="D46" s="26"/>
@@ -13365,11 +13602,11 @@
         <v>1</v>
       </c>
       <c r="AB46" s="26"/>
-      <c r="AC46" s="81"/>
+      <c r="AC46" s="57"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
-      <c r="C47" s="80">
+      <c r="C47" s="56">
         <v>5</v>
       </c>
       <c r="D47" s="26"/>
@@ -13443,11 +13680,11 @@
         <v>1</v>
       </c>
       <c r="AB47" s="26"/>
-      <c r="AC47" s="81"/>
+      <c r="AC47" s="57"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
-      <c r="C48" s="80">
+      <c r="C48" s="56">
         <v>6</v>
       </c>
       <c r="D48" s="26"/>
@@ -13521,11 +13758,11 @@
         <v>1</v>
       </c>
       <c r="AB48" s="26"/>
-      <c r="AC48" s="81"/>
+      <c r="AC48" s="57"/>
     </row>
     <row r="49" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="25"/>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="53" t="s">
         <v>182</v>
       </c>
       <c r="D49" s="24"/>
@@ -13599,11 +13836,11 @@
         <v>1</v>
       </c>
       <c r="AB49" s="24"/>
-      <c r="AC49" s="79"/>
+      <c r="AC49" s="55"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="25"/>
-      <c r="C50" s="80">
+      <c r="C50" s="56">
         <v>1</v>
       </c>
       <c r="D50" s="26"/>
@@ -13677,11 +13914,11 @@
         <v>1</v>
       </c>
       <c r="AB50" s="26"/>
-      <c r="AC50" s="81"/>
+      <c r="AC50" s="57"/>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
-      <c r="C51" s="80">
+      <c r="C51" s="56">
         <v>2</v>
       </c>
       <c r="D51" s="26"/>
@@ -13755,11 +13992,11 @@
         <v>1</v>
       </c>
       <c r="AB51" s="26"/>
-      <c r="AC51" s="81"/>
+      <c r="AC51" s="57"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
-      <c r="C52" s="80">
+      <c r="C52" s="56">
         <v>3</v>
       </c>
       <c r="D52" s="26"/>
@@ -13833,11 +14070,11 @@
         <v>1</v>
       </c>
       <c r="AB52" s="26"/>
-      <c r="AC52" s="81"/>
+      <c r="AC52" s="57"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
-      <c r="C53" s="80">
+      <c r="C53" s="56">
         <v>4</v>
       </c>
       <c r="D53" s="26"/>
@@ -13911,11 +14148,11 @@
         <v>1</v>
       </c>
       <c r="AB53" s="26"/>
-      <c r="AC53" s="81"/>
+      <c r="AC53" s="57"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="30"/>
-      <c r="C54" s="80">
+      <c r="C54" s="56">
         <v>5</v>
       </c>
       <c r="D54" s="26"/>
@@ -13989,11 +14226,11 @@
         <v>1</v>
       </c>
       <c r="AB54" s="26"/>
-      <c r="AC54" s="81"/>
+      <c r="AC54" s="57"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D55" s="26"/>
@@ -14067,11 +14304,11 @@
         <v>0</v>
       </c>
       <c r="AB55" s="26"/>
-      <c r="AC55" s="81"/>
+      <c r="AC55" s="57"/>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
-      <c r="C56" s="80">
+      <c r="C56" s="56">
         <v>6</v>
       </c>
       <c r="D56" s="26"/>
@@ -14145,11 +14382,11 @@
         <v>1</v>
       </c>
       <c r="AB56" s="26"/>
-      <c r="AC56" s="81"/>
+      <c r="AC56" s="57"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
-      <c r="C57" s="80">
+      <c r="C57" s="56">
         <v>7</v>
       </c>
       <c r="D57" s="26"/>
@@ -14223,11 +14460,11 @@
         <v>1</v>
       </c>
       <c r="AB57" s="26"/>
-      <c r="AC57" s="81"/>
+      <c r="AC57" s="57"/>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
-      <c r="C58" s="80">
+      <c r="C58" s="56">
         <v>8</v>
       </c>
       <c r="D58" s="26"/>
@@ -14301,11 +14538,11 @@
         <v>1</v>
       </c>
       <c r="AB58" s="26"/>
-      <c r="AC58" s="81"/>
+      <c r="AC58" s="57"/>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" s="30"/>
-      <c r="C59" s="80">
+      <c r="C59" s="56">
         <v>9</v>
       </c>
       <c r="D59" s="26"/>
@@ -14379,11 +14616,11 @@
         <v>1</v>
       </c>
       <c r="AB59" s="26"/>
-      <c r="AC59" s="81"/>
+      <c r="AC59" s="57"/>
     </row>
     <row r="60" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B60" s="25"/>
-      <c r="C60" s="77" t="s">
+      <c r="C60" s="53" t="s">
         <v>183</v>
       </c>
       <c r="D60" s="24"/>
@@ -14457,11 +14694,11 @@
         <v>1</v>
       </c>
       <c r="AB60" s="24"/>
-      <c r="AC60" s="79"/>
+      <c r="AC60" s="55"/>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="25"/>
-      <c r="C61" s="77">
+      <c r="C61" s="53">
         <v>1</v>
       </c>
       <c r="D61" s="26"/>
@@ -14535,11 +14772,11 @@
         <v>1</v>
       </c>
       <c r="AB61" s="26"/>
-      <c r="AC61" s="81"/>
+      <c r="AC61" s="57"/>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" s="30"/>
-      <c r="C62" s="77"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26" t="s">
         <v>156</v>
@@ -14611,83 +14848,83 @@
         <v>0</v>
       </c>
       <c r="AB62" s="26"/>
-      <c r="AC62" s="81"/>
+      <c r="AC62" s="57"/>
     </row>
     <row r="63" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="30"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84" t="s">
+      <c r="C63" s="59"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="F63" s="85" t="s">
+      <c r="F63" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="G63" s="85" t="s">
+      <c r="G63" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="85">
-        <v>0</v>
-      </c>
-      <c r="I63" s="85">
-        <v>0</v>
-      </c>
-      <c r="J63" s="85">
-        <v>0</v>
-      </c>
-      <c r="K63" s="85">
-        <v>0</v>
-      </c>
-      <c r="L63" s="85">
-        <v>0</v>
-      </c>
-      <c r="M63" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="N63" s="85">
-        <v>0</v>
-      </c>
-      <c r="O63" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="P63" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q63" s="85">
-        <v>0</v>
-      </c>
-      <c r="R63" s="85">
-        <v>0</v>
-      </c>
-      <c r="S63" s="85">
-        <v>0</v>
-      </c>
-      <c r="T63" s="85">
-        <v>0</v>
-      </c>
-      <c r="U63" s="85">
-        <v>0</v>
-      </c>
-      <c r="V63" s="85">
-        <v>0</v>
-      </c>
-      <c r="W63" s="85">
-        <v>0</v>
-      </c>
-      <c r="X63" s="85">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="84">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="84"/>
-      <c r="AC63" s="87"/>
+      <c r="H63" s="61">
+        <v>0</v>
+      </c>
+      <c r="I63" s="61">
+        <v>0</v>
+      </c>
+      <c r="J63" s="61">
+        <v>0</v>
+      </c>
+      <c r="K63" s="61">
+        <v>0</v>
+      </c>
+      <c r="L63" s="61">
+        <v>0</v>
+      </c>
+      <c r="M63" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="N63" s="61">
+        <v>0</v>
+      </c>
+      <c r="O63" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="P63" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q63" s="61">
+        <v>0</v>
+      </c>
+      <c r="R63" s="61">
+        <v>0</v>
+      </c>
+      <c r="S63" s="61">
+        <v>0</v>
+      </c>
+      <c r="T63" s="61">
+        <v>0</v>
+      </c>
+      <c r="U63" s="61">
+        <v>0</v>
+      </c>
+      <c r="V63" s="61">
+        <v>0</v>
+      </c>
+      <c r="W63" s="61">
+        <v>0</v>
+      </c>
+      <c r="X63" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="60"/>
+      <c r="AC63" s="63"/>
     </row>
     <row r="64" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B64" s="30"/>
@@ -14719,12 +14956,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="L2:R2"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:V7"/>
@@ -14735,13 +14971,28 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="Q6:W6"/>
     <mergeCell ref="L6:P6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="311">
   <si>
     <t>CXD</t>
   </si>
@@ -583,28 +583,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>02:32:00</t>
-  </si>
-  <si>
     <t>00:00:00</t>
-  </si>
-  <si>
-    <t>04:22:00</t>
-  </si>
-  <si>
-    <t>01:12:00</t>
-  </si>
-  <si>
-    <t>02:24:00</t>
-  </si>
-  <si>
-    <t>01:20:00</t>
-  </si>
-  <si>
-    <t>04:56:00</t>
-  </si>
-  <si>
-    <t>02:45:00</t>
   </si>
   <si>
     <t>Nhập xuất tồn</t>
@@ -723,9 +702,6 @@
     <t>33017700.000000</t>
   </si>
   <si>
-    <t>11760.000000</t>
-  </si>
-  <si>
     <t>0.000000</t>
   </si>
   <si>
@@ -801,15 +777,6 @@
     <t>5198400.000000</t>
   </si>
   <si>
-    <t>19740.000000</t>
-  </si>
-  <si>
-    <t>12900.000000</t>
-  </si>
-  <si>
-    <t>32640.000000</t>
-  </si>
-  <si>
     <t>7812000.000000</t>
   </si>
   <si>
@@ -840,31 +807,10 @@
     <t>3769200.000000</t>
   </si>
   <si>
-    <t>7860.000000</t>
-  </si>
-  <si>
-    <t>4980.000000</t>
-  </si>
-  <si>
-    <t>12840.000000</t>
-  </si>
-  <si>
     <t>4809600.000000</t>
   </si>
   <si>
     <t>4960800.000000</t>
-  </si>
-  <si>
-    <t>5520.000000</t>
-  </si>
-  <si>
-    <t>33120.000000</t>
-  </si>
-  <si>
-    <t>17880.000000</t>
-  </si>
-  <si>
-    <t>51000.000000</t>
   </si>
   <si>
     <t>C</t>
@@ -970,18 +916,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>27120.000000</t>
-  </si>
-  <si>
-    <t>40020.000000</t>
-  </si>
-  <si>
-    <t>13740.000000</t>
-  </si>
-  <si>
-    <t>26640.000000</t>
   </si>
   <si>
     <t>950400.000000</t>
@@ -2324,7 +2258,7 @@
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.25">
       <c r="G1" s="98" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H1" s="98"/>
       <c r="I1" s="98"/>
@@ -2352,16 +2286,16 @@
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AP5" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AQ5" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AR5" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.25">
@@ -2374,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AR6" t="s">
         <v>94</v>
@@ -2475,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="AQ7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AR7" t="s">
         <v>0</v>
@@ -2567,7 +2501,7 @@
         <v>6</v>
       </c>
       <c r="AQ8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AR8" t="s">
         <v>95</v>
@@ -2599,10 +2533,10 @@
         <v>320000</v>
       </c>
       <c r="I9" s="12">
-        <v>123456</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
-        <v>8348</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
         <v>0</v>
@@ -2629,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="12">
-        <v>14620</v>
+        <v>0</v>
       </c>
       <c r="T9" s="12">
         <v>0</v>
@@ -2644,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="12">
-        <v>47808</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="12">
         <v>0</v>
@@ -2662,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="12">
-        <v>31862</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="12">
         <v>0</v>
@@ -2727,10 +2661,10 @@
         <v>320000</v>
       </c>
       <c r="I10" s="11">
-        <v>123456</v>
+        <v>0</v>
       </c>
       <c r="J10" s="11">
-        <v>8348</v>
+        <v>0</v>
       </c>
       <c r="K10" s="11">
         <v>0</v>
@@ -2757,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="11">
-        <v>14620</v>
+        <v>0</v>
       </c>
       <c r="T10" s="11">
         <v>0</v>
@@ -2772,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="X10" s="11">
-        <v>47808</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="11">
         <v>0</v>
@@ -2790,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="11">
-        <v>31862</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="11">
         <v>0</v>
@@ -2855,10 +2789,10 @@
         <v>80000</v>
       </c>
       <c r="I11" s="11">
-        <v>123456</v>
+        <v>0</v>
       </c>
       <c r="J11" s="11">
-        <v>8348</v>
+        <v>0</v>
       </c>
       <c r="K11" s="11">
         <v>0</v>
@@ -2900,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="11">
-        <v>2439</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
         <v>0</v>
@@ -2918,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="11">
-        <v>3929</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="11">
         <v>0</v>
@@ -2951,7 +2885,7 @@
         <v>18</v>
       </c>
       <c r="AQ11" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AR11" s="8" t="s">
         <v>1</v>
@@ -2983,10 +2917,10 @@
         <v>40000</v>
       </c>
       <c r="I12" s="12">
-        <v>123456</v>
+        <v>0</v>
       </c>
       <c r="J12" s="12">
-        <v>8348</v>
+        <v>0</v>
       </c>
       <c r="K12" s="12">
         <v>0</v>
@@ -3028,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="X12" s="12">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="12">
         <v>0</v>
@@ -3156,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="12">
-        <v>2207</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="12">
         <v>0</v>
@@ -3174,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="12">
-        <v>3929</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="12">
         <v>0</v>
@@ -3269,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="11">
-        <v>2399</v>
+        <v>0</v>
       </c>
       <c r="T14" s="11">
         <v>0</v>
@@ -3284,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="11">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="11">
         <v>0</v>
@@ -3302,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="11">
-        <v>3939</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="11">
         <v>0</v>
@@ -3335,7 +3269,7 @@
         <v>29</v>
       </c>
       <c r="AQ14" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AR14" s="8" t="s">
         <v>99</v>
@@ -3397,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="12">
-        <v>2399</v>
+        <v>0</v>
       </c>
       <c r="T15" s="12">
         <v>0</v>
@@ -3412,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="12">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="12">
         <v>0</v>
@@ -3430,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="12">
-        <v>3939</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="12">
         <v>0</v>
@@ -3463,7 +3397,7 @@
         <v>30</v>
       </c>
       <c r="AQ15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AR15" t="s">
         <v>3</v>
@@ -3525,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="11">
-        <v>12221</v>
+        <v>0</v>
       </c>
       <c r="T16" s="11">
         <v>0</v>
@@ -3540,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="11">
-        <v>45225</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="11">
         <v>0</v>
@@ -3558,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="11">
-        <v>23994</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="11">
         <v>0</v>
@@ -3591,7 +3525,7 @@
         <v>31</v>
       </c>
       <c r="AQ16" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AR16" s="8" t="s">
         <v>100</v>
@@ -3653,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="12">
-        <v>2938</v>
+        <v>0</v>
       </c>
       <c r="T17" s="12">
         <v>0</v>
@@ -3668,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="12">
-        <v>9420</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="12">
         <v>0</v>
@@ -3781,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="12">
-        <v>9283</v>
+        <v>0</v>
       </c>
       <c r="T18" s="12">
         <v>0</v>
@@ -3796,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="12">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="12">
         <v>0</v>
@@ -3924,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="12">
-        <v>23205</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="12">
         <v>0</v>
@@ -3942,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="12">
-        <v>23994</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="12">
         <v>0</v>
@@ -4517,10 +4451,10 @@
         <v>1720000</v>
       </c>
       <c r="I26" s="12">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="J26" s="12">
-        <v>8540</v>
+        <v>0</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
@@ -4541,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="Q26" s="12">
-        <v>13709</v>
+        <v>0</v>
       </c>
       <c r="R26" s="12">
-        <v>7155</v>
+        <v>0</v>
       </c>
       <c r="S26" s="12">
         <v>0</v>
@@ -4556,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="12">
-        <v>35231</v>
+        <v>0</v>
       </c>
       <c r="W26" s="12">
         <v>0</v>
@@ -4636,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="11">
-        <v>5326</v>
+        <v>0</v>
       </c>
       <c r="K27" s="11">
         <v>0</v>
@@ -4657,10 +4591,10 @@
         <v>0</v>
       </c>
       <c r="Q27" s="11">
-        <v>13709</v>
+        <v>0</v>
       </c>
       <c r="R27" s="11">
-        <v>4217</v>
+        <v>0</v>
       </c>
       <c r="S27" s="11">
         <v>0</v>
@@ -4672,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="11">
-        <v>35231</v>
+        <v>0</v>
       </c>
       <c r="W27" s="11">
         <v>0</v>
@@ -4773,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="11">
-        <v>4821</v>
+        <v>0</v>
       </c>
       <c r="R28" s="11">
         <v>0</v>
@@ -4788,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="11">
-        <v>35231</v>
+        <v>0</v>
       </c>
       <c r="W28" s="11">
         <v>0</v>
@@ -5368,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="12">
-        <v>32902</v>
+        <v>0</v>
       </c>
       <c r="W33" s="12">
         <v>0</v>
@@ -5817,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="12">
-        <v>837</v>
+        <v>0</v>
       </c>
       <c r="R37" s="12">
         <v>0</v>
@@ -5832,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="12">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="W37" s="12">
         <v>0</v>
@@ -5933,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="12">
-        <v>3984</v>
+        <v>0</v>
       </c>
       <c r="R38" s="12">
         <v>0</v>
@@ -6049,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="11">
-        <v>8888</v>
+        <v>0</v>
       </c>
       <c r="R39" s="11">
         <v>0</v>
@@ -6165,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="12">
-        <v>8888</v>
+        <v>0</v>
       </c>
       <c r="R40" s="12">
         <v>0</v>
@@ -7072,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="11">
-        <v>5326</v>
+        <v>0</v>
       </c>
       <c r="K48" s="11">
         <v>0</v>
@@ -7096,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="11">
-        <v>4217</v>
+        <v>0</v>
       </c>
       <c r="S48" s="11">
         <v>0</v>
@@ -7188,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="12">
-        <v>2388</v>
+        <v>0</v>
       </c>
       <c r="K49" s="12">
         <v>0</v>
@@ -7304,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="12">
-        <v>2938</v>
+        <v>0</v>
       </c>
       <c r="K50" s="12">
         <v>0</v>
@@ -7560,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="12">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="S52" s="12">
         <v>0</v>
@@ -7792,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="12">
-        <v>3888</v>
+        <v>0</v>
       </c>
       <c r="S54" s="12">
         <v>0</v>
@@ -7881,10 +7815,10 @@
         <v>800000</v>
       </c>
       <c r="I55" s="11">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="J55" s="11">
-        <v>3214</v>
+        <v>0</v>
       </c>
       <c r="K55" s="11">
         <v>0</v>
@@ -7908,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="11">
-        <v>2938</v>
+        <v>0</v>
       </c>
       <c r="S55" s="11">
         <v>0</v>
@@ -8229,7 +8163,7 @@
         <v>200000</v>
       </c>
       <c r="I58" s="11">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
@@ -8577,7 +8511,7 @@
         <v>40000</v>
       </c>
       <c r="I61" s="12">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="J61" s="12">
         <v>0</v>
@@ -10320,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="11">
-        <v>3214</v>
+        <v>0</v>
       </c>
       <c r="K76" s="11">
         <v>0</v>
@@ -10344,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="11">
-        <v>2938</v>
+        <v>0</v>
       </c>
       <c r="S76" s="11">
         <v>0</v>
@@ -10460,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="12">
-        <v>2938</v>
+        <v>0</v>
       </c>
       <c r="S77" s="12">
         <v>0</v>
@@ -10552,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="12">
-        <v>3214</v>
+        <v>0</v>
       </c>
       <c r="K78" s="12">
         <v>0</v>
@@ -11143,43 +11077,43 @@
         <v>5512050</v>
       </c>
       <c r="L9" s="39">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M9" s="44" t="s">
         <v>185</v>
       </c>
       <c r="N9" s="39">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="39">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="R9" s="39">
         <v>0</v>
       </c>
       <c r="S9" s="39">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="T9" s="39">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="U9" s="39">
         <v>0</v>
       </c>
       <c r="V9" s="38">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="W9" s="39">
-        <v>11035</v>
+        <v>0</v>
       </c>
       <c r="X9" s="39">
-        <v>11160</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="39">
         <v>1</v>
@@ -11221,28 +11155,28 @@
         <v>3989117</v>
       </c>
       <c r="L10" s="28">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="M10" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N10" s="28">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R10" s="28">
         <v>0</v>
       </c>
       <c r="S10" s="28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T10" s="28">
         <v>0</v>
@@ -11254,10 +11188,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="28">
-        <v>11035</v>
+        <v>0</v>
       </c>
       <c r="X10" s="28">
-        <v>11042</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="28">
         <v>0</v>
@@ -11302,16 +11236,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N11" s="29">
         <v>0</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="29">
         <v>0</v>
@@ -11332,10 +11266,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="29">
-        <v>4335</v>
+        <v>0</v>
       </c>
       <c r="X11" s="29">
-        <v>4335</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="29">
         <v>0</v>
@@ -11380,16 +11314,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N12" s="29">
         <v>0</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P12" s="29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="29">
         <v>0</v>
@@ -11410,10 +11344,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="29">
-        <v>4335</v>
+        <v>0</v>
       </c>
       <c r="X12" s="29">
-        <v>4335</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="29">
         <v>0</v>
@@ -11458,16 +11392,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N13" s="29">
         <v>0</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P13" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="29">
         <v>0</v>
@@ -11536,16 +11470,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N14" s="29">
         <v>0</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="29">
         <v>0</v>
@@ -11611,28 +11545,28 @@
         <v>1300</v>
       </c>
       <c r="L15" s="29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N15" s="29">
         <v>0</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R15" s="29">
         <v>0</v>
       </c>
       <c r="S15" s="29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T15" s="29">
         <v>0</v>
@@ -11647,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="29">
         <v>0</v>
@@ -11691,17 +11625,17 @@
       <c r="L16" s="29">
         <v>0</v>
       </c>
-      <c r="M16" s="46">
-        <v>0</v>
+      <c r="M16" s="46" t="s">
+        <v>185</v>
       </c>
       <c r="N16" s="29">
         <v>0</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="29">
         <v>0</v>
@@ -11770,16 +11704,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N17" s="29">
         <v>0</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="29">
         <v>0</v>
@@ -11848,16 +11782,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N18" s="29">
         <v>0</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="29">
         <v>0</v>
@@ -11926,16 +11860,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N19" s="29">
         <v>0</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="29">
         <v>0</v>
@@ -12004,16 +11938,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N20" s="29">
         <v>0</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="29">
         <v>0</v>
@@ -12082,16 +12016,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N21" s="29">
         <v>0</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="29">
         <v>0</v>
@@ -12160,16 +12094,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N22" s="29">
         <v>0</v>
       </c>
       <c r="O22" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="29">
         <v>0</v>
@@ -12238,16 +12172,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N23" s="29">
         <v>0</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="29">
         <v>0</v>
@@ -12316,16 +12250,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N24" s="29">
         <v>0</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="29">
         <v>0</v>
@@ -12394,16 +12328,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N25" s="29">
         <v>0</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="29">
         <v>0</v>
@@ -12424,10 +12358,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="29">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="X25" s="29">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="29">
         <v>0</v>
@@ -12472,16 +12406,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N26" s="29">
         <v>0</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="29">
         <v>0</v>
@@ -12547,19 +12481,19 @@
         <v>9398</v>
       </c>
       <c r="L27" s="29">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M27" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N27" s="29">
         <v>0</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="29">
         <v>0</v>
@@ -12628,16 +12562,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N28" s="29">
         <v>0</v>
       </c>
       <c r="O28" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="29">
         <v>0</v>
@@ -12706,16 +12640,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N29" s="29">
         <v>0</v>
       </c>
       <c r="O29" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="29">
         <v>0</v>
@@ -12784,16 +12718,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N30" s="29">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P30" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q30" s="29">
         <v>0</v>
@@ -12862,16 +12796,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N31" s="29">
         <v>0</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q31" s="29">
         <v>0</v>
@@ -12940,16 +12874,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N32" s="29">
         <v>0</v>
       </c>
       <c r="O32" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="29">
         <v>0</v>
@@ -13018,16 +12952,16 @@
         <v>0</v>
       </c>
       <c r="M33" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N33" s="29">
         <v>0</v>
       </c>
       <c r="O33" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P33" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q33" s="29">
         <v>0</v>
@@ -13096,16 +13030,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N34" s="28">
         <v>0</v>
       </c>
       <c r="O34" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="28">
         <v>0</v>
@@ -13174,16 +13108,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N35" s="29">
         <v>0</v>
       </c>
       <c r="O35" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="29">
         <v>0</v>
@@ -13252,16 +13186,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N36" s="29">
         <v>0</v>
       </c>
       <c r="O36" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P36" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="29">
         <v>0</v>
@@ -13330,16 +13264,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N37" s="29">
         <v>0</v>
       </c>
       <c r="O37" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P37" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="29">
         <v>0</v>
@@ -13408,16 +13342,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N38" s="29">
         <v>0</v>
       </c>
       <c r="O38" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P38" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q38" s="29">
         <v>0</v>
@@ -13486,16 +13420,16 @@
         <v>0</v>
       </c>
       <c r="M39" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N39" s="29">
         <v>0</v>
       </c>
       <c r="O39" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P39" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q39" s="29">
         <v>0</v>
@@ -13564,16 +13498,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N40" s="29">
         <v>0</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P40" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q40" s="29">
         <v>0</v>
@@ -13642,16 +13576,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N41" s="29">
         <v>0</v>
       </c>
       <c r="O41" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q41" s="29">
         <v>0</v>
@@ -13717,28 +13651,28 @@
         <v>99200</v>
       </c>
       <c r="L42" s="28">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M42" s="45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N42" s="28">
         <v>0</v>
       </c>
       <c r="O42" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q42" s="28">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="R42" s="28">
         <v>0</v>
       </c>
       <c r="S42" s="28">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="T42" s="28">
         <v>0</v>
@@ -13753,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="28">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="28">
         <v>0</v>
@@ -13798,16 +13732,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N43" s="29">
         <v>0</v>
       </c>
       <c r="O43" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q43" s="29">
         <v>0</v>
@@ -13876,16 +13810,16 @@
         <v>0</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N44" s="29">
         <v>0</v>
       </c>
       <c r="O44" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P44" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q44" s="29">
         <v>0</v>
@@ -13954,16 +13888,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N45" s="29">
         <v>0</v>
       </c>
       <c r="O45" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P45" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q45" s="29">
         <v>0</v>
@@ -14029,28 +13963,28 @@
         <v>53600</v>
       </c>
       <c r="L46" s="29">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M46" s="46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N46" s="29">
         <v>0</v>
       </c>
       <c r="O46" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P46" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q46" s="29">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="R46" s="29">
         <v>0</v>
       </c>
       <c r="S46" s="29">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="T46" s="29">
         <v>0</v>
@@ -14065,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="29">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="29">
         <v>0</v>
@@ -14110,16 +14044,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N47" s="29">
         <v>0</v>
       </c>
       <c r="O47" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P47" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q47" s="29">
         <v>0</v>
@@ -14188,16 +14122,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N48" s="29">
         <v>0</v>
       </c>
       <c r="O48" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q48" s="29">
         <v>0</v>
@@ -14266,16 +14200,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="45" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N49" s="28">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O49" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q49" s="28">
         <v>0</v>
@@ -14287,19 +14221,19 @@
         <v>0</v>
       </c>
       <c r="T49" s="28">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="U49" s="28">
         <v>0</v>
       </c>
       <c r="V49" s="28">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="W49" s="28">
         <v>0</v>
       </c>
       <c r="X49" s="28">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="28">
         <v>0</v>
@@ -14344,16 +14278,16 @@
         <v>0</v>
       </c>
       <c r="M50" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N50" s="29">
         <v>0</v>
       </c>
       <c r="O50" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P50" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q50" s="29">
         <v>0</v>
@@ -14422,16 +14356,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N51" s="29">
         <v>0</v>
       </c>
       <c r="O51" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P51" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q51" s="29">
         <v>0</v>
@@ -14500,16 +14434,16 @@
         <v>0</v>
       </c>
       <c r="M52" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N52" s="29">
         <v>0</v>
       </c>
       <c r="O52" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P52" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q52" s="29">
         <v>0</v>
@@ -14578,16 +14512,16 @@
         <v>0</v>
       </c>
       <c r="M53" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N53" s="29">
         <v>0</v>
       </c>
       <c r="O53" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P53" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q53" s="29">
         <v>0</v>
@@ -14656,16 +14590,16 @@
         <v>0</v>
       </c>
       <c r="M54" s="46" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N54" s="29">
         <v>0</v>
       </c>
       <c r="O54" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q54" s="29">
         <v>0</v>
@@ -14734,16 +14668,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="46" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N55" s="29">
         <v>0</v>
       </c>
       <c r="O55" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P55" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q55" s="29">
         <v>0</v>
@@ -14812,16 +14746,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N56" s="29">
         <v>0</v>
       </c>
       <c r="O56" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P56" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q56" s="29">
         <v>0</v>
@@ -14890,16 +14824,16 @@
         <v>0</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N57" s="29">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O57" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P57" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q57" s="29">
         <v>0</v>
@@ -14911,19 +14845,19 @@
         <v>0</v>
       </c>
       <c r="T57" s="29">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="U57" s="29">
         <v>0</v>
       </c>
       <c r="V57" s="29">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="W57" s="29">
         <v>0</v>
       </c>
       <c r="X57" s="29">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="29">
         <v>0</v>
@@ -14968,16 +14902,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N58" s="29">
         <v>0</v>
       </c>
       <c r="O58" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P58" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q58" s="29">
         <v>0</v>
@@ -15046,16 +14980,16 @@
         <v>0</v>
       </c>
       <c r="M59" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N59" s="29">
         <v>0</v>
       </c>
       <c r="O59" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P59" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q59" s="29">
         <v>0</v>
@@ -15124,16 +15058,16 @@
         <v>0</v>
       </c>
       <c r="M60" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N60" s="28">
         <v>0</v>
       </c>
       <c r="O60" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P60" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q60" s="28">
         <v>0</v>
@@ -15202,16 +15136,16 @@
         <v>0</v>
       </c>
       <c r="M61" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N61" s="29">
         <v>0</v>
       </c>
       <c r="O61" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P61" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q61" s="29">
         <v>0</v>
@@ -15278,16 +15212,16 @@
         <v>0</v>
       </c>
       <c r="M62" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N62" s="29">
         <v>0</v>
       </c>
       <c r="O62" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P62" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q62" s="29">
         <v>0</v>
@@ -15354,16 +15288,16 @@
         <v>0</v>
       </c>
       <c r="M63" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N63" s="61">
         <v>0</v>
       </c>
       <c r="O63" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P63" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q63" s="61">
         <v>0</v>
@@ -15462,8 +15396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD170"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15477,14 +15411,14 @@
   <sheetData>
     <row r="2" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="S2" s="69"/>
       <c r="AA2" s="107" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AB2" s="108"/>
     </row>
@@ -15495,16 +15429,16 @@
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="106" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F5" s="106" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G5" s="106"/>
       <c r="H5" s="106"/>
       <c r="I5" s="106"/>
       <c r="J5" s="106" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K5" s="106"/>
       <c r="L5" s="106"/>
@@ -15514,33 +15448,33 @@
       <c r="N5" s="106"/>
       <c r="O5" s="106"/>
       <c r="P5" s="106" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="106" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="R5" s="106" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="S5" s="106"/>
       <c r="T5" s="106"/>
       <c r="U5" s="106"/>
       <c r="V5" s="106" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="W5" s="106"/>
       <c r="X5" s="106" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Y5" s="106"/>
       <c r="Z5" s="106" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AA5" s="106"/>
       <c r="AB5" s="106"/>
       <c r="AC5" s="106"/>
       <c r="AD5" s="106" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
@@ -15549,7 +15483,7 @@
       <c r="D6" s="68"/>
       <c r="E6" s="106"/>
       <c r="F6" s="106" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G6" s="106"/>
       <c r="H6" s="106"/>
@@ -15557,19 +15491,19 @@
         <v>29</v>
       </c>
       <c r="J6" s="106" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K6" s="106" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L6" s="106" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="106" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N6" s="106" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O6" s="106" t="s">
         <v>10</v>
@@ -15577,31 +15511,31 @@
       <c r="P6" s="106"/>
       <c r="Q6" s="106"/>
       <c r="R6" s="106" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="S6" s="106"/>
       <c r="T6" s="106" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="U6" s="106"/>
       <c r="V6" s="106" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="W6" s="106" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="X6" s="106" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y6" s="106" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Z6" s="67" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AA6" s="67"/>
       <c r="AB6" s="67" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AC6" s="67"/>
       <c r="AD6" s="106"/>
@@ -15612,10 +15546,10 @@
       <c r="D7" s="68"/>
       <c r="E7" s="106"/>
       <c r="F7" s="67" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H7" s="67" t="s">
         <v>10</v>
@@ -15649,64 +15583,64 @@
         <v>179</v>
       </c>
       <c r="AA7" s="67" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AB7" s="67" t="s">
         <v>179</v>
       </c>
       <c r="AC7" s="67" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AD7" s="106"/>
     </row>
     <row r="9" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I9" s="8">
         <v>7187063</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>231</v>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
       </c>
       <c r="M9" s="8">
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="N9" s="8">
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="P9" s="8">
         <v>0</v>
       </c>
       <c r="Q9" s="8">
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="R9" s="8">
         <v>1</v>
@@ -15723,52 +15657,52 @@
     </row>
     <row r="10" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I10" s="8">
         <v>2142855</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>231</v>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
       </c>
       <c r="M10" s="8">
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
       </c>
       <c r="O10" s="8">
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="P10" s="8">
         <v>0</v>
       </c>
       <c r="Q10" s="8">
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="R10" s="8">
         <v>1</v>
@@ -15785,25 +15719,25 @@
     </row>
     <row r="11" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I11" s="8">
         <v>1285713</v>
@@ -15847,25 +15781,25 @@
     </row>
     <row r="12" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I12" s="8">
         <v>857142</v>
@@ -15909,25 +15843,25 @@
     </row>
     <row r="13" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I13" s="8">
         <v>857142</v>
@@ -15971,25 +15905,25 @@
     </row>
     <row r="14" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I14" s="8">
         <v>1187069</v>
@@ -16033,25 +15967,25 @@
     </row>
     <row r="15" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I15" s="8">
         <v>857142</v>
@@ -16095,10 +16029,10 @@
     </row>
     <row r="16" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
@@ -16107,40 +16041,40 @@
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I16" s="8">
         <v>7205339</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>278</v>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
       </c>
       <c r="M16" s="8">
-        <v>23935</v>
+        <v>0</v>
       </c>
       <c r="N16" s="8">
-        <v>21290</v>
+        <v>0</v>
       </c>
       <c r="O16" s="8">
-        <v>45225</v>
+        <v>0</v>
       </c>
       <c r="P16" s="8">
         <v>0</v>
       </c>
       <c r="Q16" s="8">
-        <v>45225</v>
+        <v>0</v>
       </c>
       <c r="R16" s="8">
         <v>0</v>
@@ -16157,10 +16091,10 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -16169,40 +16103,40 @@
         <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I17">
         <v>1021524</v>
       </c>
-      <c r="J17" t="s">
-        <v>257</v>
-      </c>
-      <c r="K17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" t="s">
-        <v>259</v>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12735</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>32625</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32625</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -16219,10 +16153,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D18" t="s">
         <v>108</v>
@@ -16231,13 +16165,13 @@
         <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -16281,10 +16215,10 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
@@ -16293,40 +16227,40 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G19" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I19">
         <v>1021524</v>
       </c>
-      <c r="J19" t="s">
-        <v>257</v>
-      </c>
-      <c r="K19" t="s">
-        <v>258</v>
-      </c>
-      <c r="L19" t="s">
-        <v>259</v>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12735</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>32625</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32625</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -16343,10 +16277,10 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D20" t="s">
         <v>113</v>
@@ -16355,13 +16289,13 @@
         <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H20" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I20">
         <v>1275129</v>
@@ -16405,10 +16339,10 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
         <v>113</v>
@@ -16417,13 +16351,13 @@
         <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I21">
         <v>1275129</v>
@@ -16467,10 +16401,10 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
         <v>117</v>
@@ -16479,13 +16413,13 @@
         <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G22" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H22" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="I22">
         <v>571428</v>
@@ -16529,10 +16463,10 @@
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D23" t="s">
         <v>117</v>
@@ -16541,13 +16475,13 @@
         <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H23" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I23">
         <v>285714</v>
@@ -16591,10 +16525,10 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D24" t="s">
         <v>117</v>
@@ -16603,13 +16537,13 @@
         <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H24" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I24">
         <v>285714</v>
@@ -16630,8 +16564,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f>bc_ttnl_theo_kh!I9</f>
-        <v>7187063</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -16654,10 +16587,10 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
         <v>122</v>
@@ -16666,41 +16599,41 @@
         <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H25" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I25">
         <v>1247142</v>
       </c>
-      <c r="J25" t="s">
-        <v>270</v>
-      </c>
-      <c r="K25" t="s">
-        <v>271</v>
-      </c>
-      <c r="L25" t="s">
-        <v>272</v>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <f>bc_ttnl_theo_kh!M9</f>
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -16717,10 +16650,10 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
         <v>150</v>
@@ -16729,40 +16662,40 @@
         <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H26" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="I26">
         <v>1201199</v>
       </c>
-      <c r="J26" t="s">
-        <v>275</v>
-      </c>
-      <c r="K26" t="s">
-        <v>232</v>
-      </c>
-      <c r="L26" t="s">
-        <v>275</v>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -16779,10 +16712,10 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
         <v>157</v>
@@ -16791,13 +16724,13 @@
         <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="I27">
         <v>1746060</v>
@@ -16841,10 +16774,10 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
         <v>157</v>
@@ -16853,13 +16786,13 @@
         <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H28" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I28">
         <v>869220</v>
@@ -16903,10 +16836,10 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
         <v>157</v>
@@ -16915,13 +16848,13 @@
         <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H29" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I29">
         <v>876840</v>
@@ -16965,10 +16898,10 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -16977,13 +16910,13 @@
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I30">
         <v>142857</v>
@@ -17027,7 +16960,7 @@
     </row>
     <row r="31" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>28</v>
@@ -17039,13 +16972,13 @@
         <v>28</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I31" s="8">
         <v>7205339</v>
@@ -17095,25 +17028,25 @@
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I32">
         <v>4516</v>
@@ -17163,10 +17096,10 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D33" t="s">
         <v>157</v>
@@ -17175,13 +17108,13 @@
         <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I33">
         <v>4516</v>
@@ -17231,10 +17164,10 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
         <v>157</v>
@@ -17243,13 +17176,13 @@
         <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I34">
         <v>2258</v>
@@ -17299,10 +17232,10 @@
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
         <v>157</v>
@@ -17311,13 +17244,13 @@
         <v>159</v>
       </c>
       <c r="F35" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I35">
         <v>2258</v>
@@ -17367,25 +17300,25 @@
     </row>
     <row r="36" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I36" s="8">
         <v>1285713</v>
@@ -17435,10 +17368,10 @@
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D37" t="s">
         <v>108</v>
@@ -17447,13 +17380,13 @@
         <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H37" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I37">
         <v>142857</v>
@@ -17503,10 +17436,10 @@
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D38" t="s">
         <v>108</v>
@@ -17515,13 +17448,13 @@
         <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H38" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I38">
         <v>142857</v>
@@ -17571,10 +17504,10 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D39" t="s">
         <v>113</v>
@@ -17583,13 +17516,13 @@
         <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H39" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I39">
         <v>142857</v>
@@ -17639,10 +17572,10 @@
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
         <v>113</v>
@@ -17651,13 +17584,13 @@
         <v>114</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H40" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I40">
         <v>142857</v>
@@ -17707,10 +17640,10 @@
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s">
         <v>117</v>
@@ -17719,13 +17652,13 @@
         <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G41" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H41" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I41">
         <v>285714</v>
@@ -17775,10 +17708,10 @@
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D42" t="s">
         <v>117</v>
@@ -17787,13 +17720,13 @@
         <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G42" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H42" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I42">
         <v>142857</v>
@@ -17843,10 +17776,10 @@
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C43" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
         <v>117</v>
@@ -17855,13 +17788,13 @@
         <v>119</v>
       </c>
       <c r="F43" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G43" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H43" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I43">
         <v>142857</v>
@@ -17911,10 +17844,10 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D44" t="s">
         <v>122</v>
@@ -17923,13 +17856,13 @@
         <v>122</v>
       </c>
       <c r="F44" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H44" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I44">
         <v>142857</v>
@@ -17979,10 +17912,10 @@
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D45" t="s">
         <v>150</v>
@@ -17991,13 +17924,13 @@
         <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G45" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I45">
         <v>285714</v>
@@ -18047,10 +17980,10 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D46" t="s">
         <v>157</v>
@@ -18059,13 +17992,13 @@
         <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G46" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H46" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I46">
         <v>285714</v>
@@ -18115,10 +18048,10 @@
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
         <v>157</v>
@@ -18127,13 +18060,13 @@
         <v>159</v>
       </c>
       <c r="F47" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G47" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H47" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I47">
         <v>142857</v>
@@ -18183,10 +18116,10 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C48" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
         <v>157</v>
@@ -18195,13 +18128,13 @@
         <v>158</v>
       </c>
       <c r="F48" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G48" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H48" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I48">
         <v>142857</v>
@@ -18251,25 +18184,25 @@
     </row>
     <row r="49" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="I49" s="8">
         <v>857142</v>
@@ -18319,10 +18252,10 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D50" t="s">
         <v>108</v>
@@ -18331,13 +18264,13 @@
         <v>108</v>
       </c>
       <c r="F50" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H50" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I50">
         <v>142857</v>
@@ -18387,10 +18320,10 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D51" t="s">
         <v>108</v>
@@ -18399,13 +18332,13 @@
         <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G51" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H51" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I51">
         <v>142857</v>
@@ -18455,10 +18388,10 @@
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C52" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D52" t="s">
         <v>113</v>
@@ -18467,13 +18400,13 @@
         <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H52" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I52">
         <v>142857</v>
@@ -18523,10 +18456,10 @@
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s">
         <v>113</v>
@@ -18535,13 +18468,13 @@
         <v>114</v>
       </c>
       <c r="F53" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G53" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H53" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I53">
         <v>142857</v>
@@ -18591,10 +18524,10 @@
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C54" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D54" t="s">
         <v>117</v>
@@ -18603,13 +18536,13 @@
         <v>117</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G54" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H54" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -18659,10 +18592,10 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
         <v>117</v>
@@ -18671,13 +18604,13 @@
         <v>119</v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G55" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H55" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -18727,10 +18660,10 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C56" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D56" t="s">
         <v>117</v>
@@ -18739,13 +18672,13 @@
         <v>118</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H56" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -18795,10 +18728,10 @@
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
         <v>122</v>
@@ -18807,13 +18740,13 @@
         <v>122</v>
       </c>
       <c r="F57" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H57" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I57">
         <v>142857</v>
@@ -18863,10 +18796,10 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D58" t="s">
         <v>150</v>
@@ -18875,13 +18808,13 @@
         <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H58" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I58">
         <v>142857</v>
@@ -18931,10 +18864,10 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D59" t="s">
         <v>157</v>
@@ -18943,13 +18876,13 @@
         <v>157</v>
       </c>
       <c r="F59" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G59" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H59" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I59">
         <v>285714</v>
@@ -18999,10 +18932,10 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C60" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D60" t="s">
         <v>157</v>
@@ -19011,13 +18944,13 @@
         <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G60" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H60" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I60">
         <v>142857</v>
@@ -19067,10 +19000,10 @@
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C61" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D61" t="s">
         <v>157</v>
@@ -19079,13 +19012,13 @@
         <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I61">
         <v>142857</v>
@@ -19135,25 +19068,25 @@
     </row>
     <row r="62" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I62" s="8">
         <v>1285713</v>
@@ -19203,10 +19136,10 @@
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
         <v>108</v>
@@ -19215,13 +19148,13 @@
         <v>108</v>
       </c>
       <c r="F63" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G63" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H63" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I63">
         <v>142857</v>
@@ -19271,10 +19204,10 @@
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
         <v>108</v>
@@ -19283,13 +19216,13 @@
         <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G64" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H64" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I64">
         <v>142857</v>
@@ -19339,10 +19272,10 @@
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
         <v>113</v>
@@ -19351,13 +19284,13 @@
         <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G65" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H65" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I65">
         <v>142857</v>
@@ -19407,10 +19340,10 @@
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C66" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D66" t="s">
         <v>113</v>
@@ -19419,13 +19352,13 @@
         <v>114</v>
       </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G66" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H66" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I66">
         <v>142857</v>
@@ -19475,10 +19408,10 @@
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D67" t="s">
         <v>117</v>
@@ -19487,13 +19420,13 @@
         <v>117</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G67" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H67" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I67">
         <v>285714</v>
@@ -19543,10 +19476,10 @@
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C68" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
         <v>117</v>
@@ -19555,13 +19488,13 @@
         <v>118</v>
       </c>
       <c r="F68" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G68" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H68" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I68">
         <v>142857</v>
@@ -19611,10 +19544,10 @@
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C69" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D69" t="s">
         <v>117</v>
@@ -19623,13 +19556,13 @@
         <v>119</v>
       </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G69" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H69" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I69">
         <v>142857</v>
@@ -19679,10 +19612,10 @@
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s">
         <v>122</v>
@@ -19691,13 +19624,13 @@
         <v>122</v>
       </c>
       <c r="F70" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="G70" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H70" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="I70">
         <v>142857</v>
@@ -19747,10 +19680,10 @@
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C71" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s">
         <v>150</v>
@@ -19759,13 +19692,13 @@
         <v>150</v>
       </c>
       <c r="F71" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G71" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H71" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I71">
         <v>142857</v>
@@ -19815,10 +19748,10 @@
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D72" t="s">
         <v>157</v>
@@ -19827,13 +19760,13 @@
         <v>157</v>
       </c>
       <c r="F72" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H72" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I72">
         <v>285714</v>
@@ -19883,10 +19816,10 @@
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s">
         <v>157</v>
@@ -19895,13 +19828,13 @@
         <v>159</v>
       </c>
       <c r="F73" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G73" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H73" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I73">
         <v>142857</v>
@@ -19951,10 +19884,10 @@
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D74" t="s">
         <v>157</v>
@@ -19963,13 +19896,13 @@
         <v>158</v>
       </c>
       <c r="F74" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G74" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H74" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I74">
         <v>142857</v>
@@ -20019,10 +19952,10 @@
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
@@ -20031,13 +19964,13 @@
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G75" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H75" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I75">
         <v>142857</v>
@@ -20087,25 +20020,25 @@
     </row>
     <row r="76" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="I76" s="8">
         <v>3758495</v>
@@ -20155,10 +20088,10 @@
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C77" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D77" t="s">
         <v>108</v>
@@ -20167,13 +20100,13 @@
         <v>108</v>
       </c>
       <c r="F77" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="G77" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H77" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="I77">
         <v>592953</v>
@@ -20223,10 +20156,10 @@
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D78" t="s">
         <v>108</v>
@@ -20235,13 +20168,13 @@
         <v>109</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="G78" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H78" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="I78">
         <v>592953</v>
@@ -20291,10 +20224,10 @@
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D79" t="s">
         <v>113</v>
@@ -20303,13 +20236,13 @@
         <v>113</v>
       </c>
       <c r="F79" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="G79" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="H79" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="I79">
         <v>846558</v>
@@ -20359,10 +20292,10 @@
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C80" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s">
         <v>113</v>
@@ -20371,13 +20304,13 @@
         <v>114</v>
       </c>
       <c r="F80" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="G80" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="H80" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="I80">
         <v>846558</v>
@@ -20427,10 +20360,10 @@
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C81" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D81" t="s">
         <v>122</v>
@@ -20439,13 +20372,13 @@
         <v>122</v>
       </c>
       <c r="F81" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G81" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H81" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="I81">
         <v>818571</v>
@@ -20495,10 +20428,10 @@
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C82" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D82" t="s">
         <v>150</v>
@@ -20507,13 +20440,13 @@
         <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="G82" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H82" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="I82">
         <v>629771</v>
@@ -20563,10 +20496,10 @@
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
         <v>157</v>
@@ -20575,13 +20508,13 @@
         <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G83" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H83" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I83">
         <v>870642</v>
@@ -20631,10 +20564,10 @@
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C84" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D84" t="s">
         <v>157</v>
@@ -20643,13 +20576,13 @@
         <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G84" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H84" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I84">
         <v>438671</v>
@@ -20699,10 +20632,10 @@
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D85" t="s">
         <v>157</v>
@@ -20711,13 +20644,13 @@
         <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G85" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H85" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I85">
         <v>431971</v>
@@ -20767,25 +20700,25 @@
     </row>
     <row r="86" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I86" s="8">
         <v>2380</v>
@@ -20835,10 +20768,10 @@
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D87" t="s">
         <v>157</v>
@@ -20847,13 +20780,13 @@
         <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G87" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H87" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I87">
         <v>2380</v>
@@ -20903,10 +20836,10 @@
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D88" t="s">
         <v>157</v>
@@ -20915,13 +20848,13 @@
         <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G88" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H88" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I88">
         <v>1190</v>
@@ -20971,10 +20904,10 @@
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
         <v>157</v>
@@ -20983,13 +20916,13 @@
         <v>159</v>
       </c>
       <c r="F89" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G89" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H89" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I89">
         <v>1190</v>
@@ -21039,25 +20972,25 @@
     </row>
     <row r="90" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I90" s="8">
         <v>2840</v>
@@ -21107,10 +21040,10 @@
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C91" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D91" t="s">
         <v>157</v>
@@ -21119,13 +21052,13 @@
         <v>157</v>
       </c>
       <c r="F91" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G91" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H91" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I91">
         <v>2840</v>
@@ -21175,10 +21108,10 @@
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D92" t="s">
         <v>157</v>
@@ -21187,13 +21120,13 @@
         <v>159</v>
       </c>
       <c r="F92" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G92" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H92" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I92">
         <v>1190</v>
@@ -21243,10 +21176,10 @@
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s">
         <v>157</v>
@@ -21255,13 +21188,13 @@
         <v>158</v>
       </c>
       <c r="F93" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G93" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H93" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I93">
         <v>1650</v>
@@ -21311,25 +21244,25 @@
     </row>
     <row r="94" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I94" s="8">
         <v>2840</v>
@@ -21379,10 +21312,10 @@
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C95" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D95" t="s">
         <v>157</v>
@@ -21391,13 +21324,13 @@
         <v>157</v>
       </c>
       <c r="F95" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G95" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H95" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I95">
         <v>2840</v>
@@ -21447,10 +21380,10 @@
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C96" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D96" t="s">
         <v>157</v>
@@ -21459,13 +21392,13 @@
         <v>159</v>
       </c>
       <c r="F96" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G96" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I96">
         <v>1190</v>
@@ -21515,10 +21448,10 @@
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D97" t="s">
         <v>157</v>
@@ -21527,13 +21460,13 @@
         <v>158</v>
       </c>
       <c r="F97" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G97" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H97" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I97">
         <v>1650</v>
@@ -21583,25 +21516,25 @@
     </row>
     <row r="98" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I98" s="8">
         <v>5700</v>
@@ -21651,10 +21584,10 @@
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C99" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
         <v>108</v>
@@ -21663,13 +21596,13 @@
         <v>108</v>
       </c>
       <c r="F99" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G99" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H99" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -21719,10 +21652,10 @@
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C100" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D100" t="s">
         <v>108</v>
@@ -21731,13 +21664,13 @@
         <v>110</v>
       </c>
       <c r="F100" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G100" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H100" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -21787,10 +21720,10 @@
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C101" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D101" t="s">
         <v>157</v>
@@ -21799,13 +21732,13 @@
         <v>157</v>
       </c>
       <c r="F101" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G101" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H101" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I101">
         <v>5700</v>
@@ -21855,10 +21788,10 @@
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D102" t="s">
         <v>157</v>
@@ -21867,13 +21800,13 @@
         <v>159</v>
       </c>
       <c r="F102" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G102" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I102">
         <v>2850</v>
@@ -21923,10 +21856,10 @@
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C103" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D103" t="s">
         <v>157</v>
@@ -21935,13 +21868,13 @@
         <v>158</v>
       </c>
       <c r="F103" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H103" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I103">
         <v>2850</v>
@@ -21991,52 +21924,52 @@
     </row>
     <row r="104" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I104" s="8">
         <v>2142855</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>315</v>
+      <c r="J104" s="8">
+        <v>0</v>
+      </c>
+      <c r="K104" s="8">
+        <v>0</v>
+      </c>
+      <c r="L104" s="8">
+        <v>0</v>
       </c>
       <c r="M104" s="8">
-        <v>22915</v>
+        <v>0</v>
       </c>
       <c r="N104" s="8">
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="O104" s="8">
-        <v>42805</v>
+        <v>0</v>
       </c>
       <c r="P104" s="8">
         <v>0</v>
       </c>
       <c r="Q104" s="8">
-        <v>42805</v>
+        <v>0</v>
       </c>
       <c r="R104" s="8">
         <v>5527</v>
@@ -22059,10 +21992,10 @@
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D105" t="s">
         <v>108</v>
@@ -22071,40 +22004,40 @@
         <v>108</v>
       </c>
       <c r="F105" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G105" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H105" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I105">
         <v>285714</v>
       </c>
-      <c r="J105" t="s">
-        <v>316</v>
-      </c>
-      <c r="K105" t="s">
-        <v>258</v>
-      </c>
-      <c r="L105" t="s">
-        <v>317</v>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>11715</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>31605</v>
+        <v>0</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>31605</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>5527</v>
@@ -22127,10 +22060,10 @@
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -22139,40 +22072,40 @@
         <v>109</v>
       </c>
       <c r="F106" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G106" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H106" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I106">
         <v>285714</v>
       </c>
-      <c r="J106" t="s">
-        <v>316</v>
-      </c>
-      <c r="K106" t="s">
-        <v>258</v>
-      </c>
-      <c r="L106" t="s">
-        <v>317</v>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>11715</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="O106">
-        <v>31605</v>
+        <v>0</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>31605</v>
+        <v>0</v>
       </c>
       <c r="R106">
         <v>5527</v>
@@ -22195,10 +22128,10 @@
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D107" t="s">
         <v>113</v>
@@ -22207,13 +22140,13 @@
         <v>113</v>
       </c>
       <c r="F107" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G107" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H107" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I107">
         <v>285714</v>
@@ -22263,10 +22196,10 @@
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D108" t="s">
         <v>113</v>
@@ -22275,13 +22208,13 @@
         <v>114</v>
       </c>
       <c r="F108" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G108" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H108" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I108">
         <v>285714</v>
@@ -22331,10 +22264,10 @@
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D109" t="s">
         <v>117</v>
@@ -22343,13 +22276,13 @@
         <v>117</v>
       </c>
       <c r="F109" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G109" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H109" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I109">
         <v>285714</v>
@@ -22399,10 +22332,10 @@
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D110" t="s">
         <v>117</v>
@@ -22411,13 +22344,13 @@
         <v>118</v>
       </c>
       <c r="F110" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G110" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H110" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I110">
         <v>142857</v>
@@ -22467,10 +22400,10 @@
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C111" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D111" t="s">
         <v>117</v>
@@ -22479,13 +22412,13 @@
         <v>119</v>
       </c>
       <c r="F111" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G111" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H111" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I111">
         <v>142857</v>
@@ -22535,10 +22468,10 @@
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D112" t="s">
         <v>122</v>
@@ -22547,40 +22480,40 @@
         <v>122</v>
       </c>
       <c r="F112" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="G112" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H112" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="I112">
         <v>285714</v>
       </c>
-      <c r="J112" t="s">
-        <v>270</v>
-      </c>
-      <c r="K112" t="s">
-        <v>232</v>
-      </c>
-      <c r="L112" t="s">
-        <v>270</v>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
       <c r="O112">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="R112">
         <v>5527</v>
@@ -22603,10 +22536,10 @@
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D113" t="s">
         <v>150</v>
@@ -22615,40 +22548,40 @@
         <v>150</v>
       </c>
       <c r="F113" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="G113" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H113" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="I113">
         <v>428571</v>
       </c>
-      <c r="J113" t="s">
-        <v>275</v>
-      </c>
-      <c r="K113" t="s">
-        <v>232</v>
-      </c>
-      <c r="L113" t="s">
-        <v>275</v>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
       </c>
       <c r="M113">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
       <c r="O113">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="R113">
         <v>5527</v>
@@ -22671,10 +22604,10 @@
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C114" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D114" t="s">
         <v>157</v>
@@ -22683,13 +22616,13 @@
         <v>157</v>
       </c>
       <c r="F114" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G114" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H114" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I114">
         <v>571428</v>
@@ -22739,10 +22672,10 @@
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D115" t="s">
         <v>157</v>
@@ -22751,13 +22684,13 @@
         <v>158</v>
       </c>
       <c r="F115" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G115" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H115" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I115">
         <v>285714</v>
@@ -22807,10 +22740,10 @@
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C116" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D116" t="s">
         <v>157</v>
@@ -22819,13 +22752,13 @@
         <v>159</v>
       </c>
       <c r="F116" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G116" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H116" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I116">
         <v>285714</v>
@@ -22875,25 +22808,25 @@
     </row>
     <row r="117" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I117" s="8">
         <v>1285713</v>
@@ -22943,10 +22876,10 @@
     </row>
     <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D118" t="s">
         <v>108</v>
@@ -22955,13 +22888,13 @@
         <v>108</v>
       </c>
       <c r="F118" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G118" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H118" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I118">
         <v>142857</v>
@@ -23011,10 +22944,10 @@
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D119" t="s">
         <v>108</v>
@@ -23023,13 +22956,13 @@
         <v>109</v>
       </c>
       <c r="F119" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G119" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H119" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I119">
         <v>142857</v>
@@ -23079,10 +23012,10 @@
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D120" t="s">
         <v>113</v>
@@ -23091,13 +23024,13 @@
         <v>113</v>
       </c>
       <c r="F120" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G120" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H120" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I120">
         <v>142857</v>
@@ -23147,10 +23080,10 @@
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C121" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D121" t="s">
         <v>113</v>
@@ -23159,13 +23092,13 @@
         <v>114</v>
       </c>
       <c r="F121" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G121" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H121" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I121">
         <v>142857</v>
@@ -23215,10 +23148,10 @@
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C122" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D122" t="s">
         <v>117</v>
@@ -23227,13 +23160,13 @@
         <v>117</v>
       </c>
       <c r="F122" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G122" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H122" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I122">
         <v>285714</v>
@@ -23283,10 +23216,10 @@
     </row>
     <row r="123" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D123" t="s">
         <v>117</v>
@@ -23295,13 +23228,13 @@
         <v>119</v>
       </c>
       <c r="F123" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G123" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H123" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I123">
         <v>142857</v>
@@ -23351,10 +23284,10 @@
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D124" t="s">
         <v>117</v>
@@ -23363,13 +23296,13 @@
         <v>118</v>
       </c>
       <c r="F124" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G124" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H124" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I124">
         <v>142857</v>
@@ -23419,10 +23352,10 @@
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C125" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D125" t="s">
         <v>122</v>
@@ -23431,13 +23364,13 @@
         <v>122</v>
       </c>
       <c r="F125" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="G125" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H125" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="I125">
         <v>142857</v>
@@ -23487,10 +23420,10 @@
     </row>
     <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C126" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D126" t="s">
         <v>150</v>
@@ -23499,13 +23432,13 @@
         <v>150</v>
       </c>
       <c r="F126" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G126" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H126" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I126">
         <v>142857</v>
@@ -23555,10 +23488,10 @@
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D127" t="s">
         <v>157</v>
@@ -23567,13 +23500,13 @@
         <v>157</v>
       </c>
       <c r="F127" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G127" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H127" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I127">
         <v>285714</v>
@@ -23623,10 +23556,10 @@
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D128" t="s">
         <v>157</v>
@@ -23635,13 +23568,13 @@
         <v>159</v>
       </c>
       <c r="F128" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G128" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H128" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I128">
         <v>142857</v>
@@ -23691,10 +23624,10 @@
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D129" t="s">
         <v>157</v>
@@ -23703,13 +23636,13 @@
         <v>158</v>
       </c>
       <c r="F129" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G129" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H129" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I129">
         <v>142857</v>
@@ -23759,10 +23692,10 @@
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
@@ -23771,13 +23704,13 @@
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G130" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H130" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I130">
         <v>142857</v>
@@ -23827,25 +23760,25 @@
     </row>
     <row r="131" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I131" s="8">
         <v>857142</v>
@@ -23895,10 +23828,10 @@
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C132" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D132" t="s">
         <v>108</v>
@@ -23907,13 +23840,13 @@
         <v>108</v>
       </c>
       <c r="F132" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G132" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H132" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="I132">
         <v>142857</v>
@@ -23963,10 +23896,10 @@
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D133" t="s">
         <v>108</v>
@@ -23975,13 +23908,13 @@
         <v>109</v>
       </c>
       <c r="F133" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G133" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H133" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="I133">
         <v>142857</v>
@@ -24031,10 +23964,10 @@
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C134" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D134" t="s">
         <v>113</v>
@@ -24043,13 +23976,13 @@
         <v>113</v>
       </c>
       <c r="F134" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G134" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H134" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="I134">
         <v>142857</v>
@@ -24099,10 +24032,10 @@
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C135" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D135" t="s">
         <v>113</v>
@@ -24111,13 +24044,13 @@
         <v>114</v>
       </c>
       <c r="F135" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G135" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H135" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="I135">
         <v>142857</v>
@@ -24167,10 +24100,10 @@
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C136" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D136" t="s">
         <v>122</v>
@@ -24179,13 +24112,13 @@
         <v>122</v>
       </c>
       <c r="F136" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G136" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H136" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="I136">
         <v>142857</v>
@@ -24235,10 +24168,10 @@
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C137" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D137" t="s">
         <v>150</v>
@@ -24247,13 +24180,13 @@
         <v>150</v>
       </c>
       <c r="F137" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G137" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H137" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="I137">
         <v>142857</v>
@@ -24303,10 +24236,10 @@
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C138" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D138" t="s">
         <v>157</v>
@@ -24315,13 +24248,13 @@
         <v>157</v>
       </c>
       <c r="F138" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G138" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H138" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I138">
         <v>285714</v>
@@ -24371,10 +24304,10 @@
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C139" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D139" t="s">
         <v>157</v>
@@ -24383,13 +24316,13 @@
         <v>159</v>
       </c>
       <c r="F139" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G139" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H139" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I139">
         <v>142857</v>
@@ -24439,10 +24372,10 @@
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C140" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D140" t="s">
         <v>157</v>
@@ -24451,13 +24384,13 @@
         <v>158</v>
       </c>
       <c r="F140" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G140" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H140" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I140">
         <v>142857</v>
@@ -24507,25 +24440,25 @@
     </row>
     <row r="141" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I141" s="8">
         <v>857142</v>
@@ -24575,10 +24508,10 @@
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C142" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D142" t="s">
         <v>108</v>
@@ -24587,13 +24520,13 @@
         <v>108</v>
       </c>
       <c r="F142" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="G142" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H142" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I142">
         <v>142857</v>
@@ -24643,10 +24576,10 @@
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C143" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D143" t="s">
         <v>108</v>
@@ -24655,13 +24588,13 @@
         <v>109</v>
       </c>
       <c r="F143" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="G143" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H143" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I143">
         <v>142857</v>
@@ -24711,10 +24644,10 @@
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C144" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D144" t="s">
         <v>113</v>
@@ -24723,13 +24656,13 @@
         <v>113</v>
       </c>
       <c r="F144" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="G144" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H144" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I144">
         <v>142857</v>
@@ -24779,10 +24712,10 @@
     </row>
     <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C145" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D145" t="s">
         <v>113</v>
@@ -24791,13 +24724,13 @@
         <v>114</v>
       </c>
       <c r="F145" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="G145" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H145" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I145">
         <v>142857</v>
@@ -24847,10 +24780,10 @@
     </row>
     <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D146" t="s">
         <v>122</v>
@@ -24859,13 +24792,13 @@
         <v>122</v>
       </c>
       <c r="F146" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="G146" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H146" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I146">
         <v>142857</v>
@@ -24915,10 +24848,10 @@
     </row>
     <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D147" t="s">
         <v>150</v>
@@ -24927,13 +24860,13 @@
         <v>150</v>
       </c>
       <c r="F147" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="G147" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H147" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I147">
         <v>142857</v>
@@ -24983,10 +24916,10 @@
     </row>
     <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D148" t="s">
         <v>157</v>
@@ -24995,13 +24928,13 @@
         <v>157</v>
       </c>
       <c r="F148" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G148" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H148" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I148">
         <v>285714</v>
@@ -25051,10 +24984,10 @@
     </row>
     <row r="149" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D149" t="s">
         <v>157</v>
@@ -25063,13 +24996,13 @@
         <v>159</v>
       </c>
       <c r="F149" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G149" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H149" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I149">
         <v>142857</v>
@@ -25119,10 +25052,10 @@
     </row>
     <row r="150" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D150" t="s">
         <v>157</v>
@@ -25131,13 +25064,13 @@
         <v>158</v>
       </c>
       <c r="F150" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G150" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H150" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I150">
         <v>142857</v>
@@ -25187,25 +25120,25 @@
     </row>
     <row r="151" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I151" s="8">
         <v>1187069</v>
@@ -25255,10 +25188,10 @@
     </row>
     <row r="152" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C152" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
         <v>108</v>
@@ -25267,13 +25200,13 @@
         <v>108</v>
       </c>
       <c r="F152" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G152" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H152" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="I152">
         <v>164382</v>
@@ -25323,10 +25256,10 @@
     </row>
     <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C153" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D153" t="s">
         <v>108</v>
@@ -25335,13 +25268,13 @@
         <v>109</v>
       </c>
       <c r="F153" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G153" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H153" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="I153">
         <v>164382</v>
@@ -25391,10 +25324,10 @@
     </row>
     <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C154" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D154" t="s">
         <v>113</v>
@@ -25403,13 +25336,13 @@
         <v>113</v>
       </c>
       <c r="F154" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="G154" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H154" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="I154">
         <v>417987</v>
@@ -25459,10 +25392,10 @@
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C155" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D155" t="s">
         <v>113</v>
@@ -25471,13 +25404,13 @@
         <v>114</v>
       </c>
       <c r="F155" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="G155" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H155" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="I155">
         <v>417987</v>
@@ -25527,10 +25460,10 @@
     </row>
     <row r="156" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D156" t="s">
         <v>122</v>
@@ -25539,13 +25472,13 @@
         <v>122</v>
       </c>
       <c r="F156" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G156" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H156" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I156">
         <v>390000</v>
@@ -25595,10 +25528,10 @@
     </row>
     <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C157" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D157" t="s">
         <v>150</v>
@@ -25607,13 +25540,13 @@
         <v>150</v>
       </c>
       <c r="F157" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G157" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H157" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I157">
         <v>201200</v>
@@ -25663,10 +25596,10 @@
     </row>
     <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C158" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D158" t="s">
         <v>157</v>
@@ -25675,13 +25608,13 @@
         <v>157</v>
       </c>
       <c r="F158" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G158" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H158" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I158">
         <v>13500</v>
@@ -25731,10 +25664,10 @@
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C159" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D159" t="s">
         <v>157</v>
@@ -25743,13 +25676,13 @@
         <v>158</v>
       </c>
       <c r="F159" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G159" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H159" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I159">
         <v>10100</v>
@@ -25799,10 +25732,10 @@
     </row>
     <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C160" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D160" t="s">
         <v>157</v>
@@ -25811,13 +25744,13 @@
         <v>159</v>
       </c>
       <c r="F160" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G160" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H160" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I160">
         <v>3400</v>
@@ -25867,25 +25800,25 @@
     </row>
     <row r="161" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I161" s="8">
         <v>857142</v>
@@ -25935,10 +25868,10 @@
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C162" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -25947,13 +25880,13 @@
         <v>108</v>
       </c>
       <c r="F162" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="G162" t="s">
+        <v>281</v>
+      </c>
+      <c r="H162" t="s">
         <v>299</v>
-      </c>
-      <c r="H162" t="s">
-        <v>321</v>
       </c>
       <c r="I162">
         <v>142857</v>
@@ -26003,10 +25936,10 @@
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C163" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D163" t="s">
         <v>108</v>
@@ -26015,13 +25948,13 @@
         <v>109</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="G163" t="s">
+        <v>281</v>
+      </c>
+      <c r="H163" t="s">
         <v>299</v>
-      </c>
-      <c r="H163" t="s">
-        <v>321</v>
       </c>
       <c r="I163">
         <v>142857</v>
@@ -26071,10 +26004,10 @@
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C164" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D164" t="s">
         <v>113</v>
@@ -26083,13 +26016,13 @@
         <v>113</v>
       </c>
       <c r="F164" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="G164" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H164" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="I164">
         <v>142857</v>
@@ -26139,10 +26072,10 @@
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C165" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D165" t="s">
         <v>113</v>
@@ -26151,13 +26084,13 @@
         <v>114</v>
       </c>
       <c r="F165" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="G165" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H165" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="I165">
         <v>142857</v>
@@ -26207,10 +26140,10 @@
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C166" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D166" t="s">
         <v>122</v>
@@ -26219,13 +26152,13 @@
         <v>122</v>
       </c>
       <c r="F166" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G166" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H166" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="I166">
         <v>142857</v>
@@ -26275,10 +26208,10 @@
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D167" t="s">
         <v>150</v>
@@ -26287,13 +26220,13 @@
         <v>150</v>
       </c>
       <c r="F167" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="G167" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H167" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="I167">
         <v>142857</v>
@@ -26343,10 +26276,10 @@
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C168" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D168" t="s">
         <v>157</v>
@@ -26355,13 +26288,13 @@
         <v>157</v>
       </c>
       <c r="F168" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G168" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H168" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I168">
         <v>285714</v>
@@ -26411,10 +26344,10 @@
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C169" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D169" t="s">
         <v>157</v>
@@ -26423,13 +26356,13 @@
         <v>159</v>
       </c>
       <c r="F169" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G169" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H169" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I169">
         <v>142857</v>
@@ -26479,10 +26412,10 @@
     </row>
     <row r="170" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C170" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D170" t="s">
         <v>157</v>
@@ -26491,13 +26424,13 @@
         <v>158</v>
       </c>
       <c r="F170" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G170" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H170" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I170">
         <v>142857</v>
@@ -26584,8 +26517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="P177" sqref="P177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26601,7 +26534,7 @@
   <sheetData>
     <row r="2" spans="2:28" s="78" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -26610,7 +26543,7 @@
       <c r="G2" s="113"/>
       <c r="H2" s="113"/>
       <c r="I2" s="112" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="J2" s="112"/>
       <c r="K2" s="112"/>
@@ -26625,7 +26558,7 @@
       <c r="T2" s="77"/>
       <c r="U2" s="77"/>
       <c r="Y2" s="110" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Z2" s="111"/>
     </row>
@@ -26666,16 +26599,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E5" s="89"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
       <c r="H5" s="89" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I5" s="89"/>
       <c r="J5" s="89"/>
@@ -26685,40 +26618,40 @@
       <c r="L5" s="89"/>
       <c r="M5" s="89"/>
       <c r="N5" s="99" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O5" s="99" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P5" s="89" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="89"/>
       <c r="R5" s="89"/>
       <c r="S5" s="89"/>
       <c r="T5" s="99" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="U5" s="99"/>
       <c r="V5" s="89" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="W5" s="89"/>
       <c r="X5" s="89" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Y5" s="89"/>
       <c r="Z5" s="89"/>
       <c r="AA5" s="89"/>
       <c r="AB5" s="109" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="94"/>
       <c r="C6" s="81"/>
       <c r="D6" s="81" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
@@ -26726,19 +26659,19 @@
         <v>29</v>
       </c>
       <c r="H6" s="81" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J6" s="81" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="101" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L6" s="101" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M6" s="101" t="s">
         <v>10</v>
@@ -26746,31 +26679,31 @@
       <c r="N6" s="101"/>
       <c r="O6" s="101"/>
       <c r="P6" s="81" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="81"/>
       <c r="R6" s="81" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="S6" s="81"/>
       <c r="T6" s="101" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="U6" s="101" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="V6" s="81" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="W6" s="81" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="83"/>
@@ -26779,10 +26712,10 @@
       <c r="B7" s="94"/>
       <c r="C7" s="81"/>
       <c r="D7" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -26816,13 +26749,13 @@
         <v>179</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>179</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AB7" s="83"/>
     </row>
@@ -26832,7 +26765,7 @@
         <v>A</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D8" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F9/(24*60*60),"[h]:mm")</f>
@@ -26852,7 +26785,7 @@
       </c>
       <c r="H8" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J9/(24*60*60),"[h]:mm")</f>
-        <v>3:16</v>
+        <v>0:00</v>
       </c>
       <c r="I8" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K9/(24*60*60),"[h]:mm")</f>
@@ -26860,11 +26793,11 @@
       </c>
       <c r="J8" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L9/(24*60*60),"[h]:mm")</f>
-        <v>3:16</v>
+        <v>0:00</v>
       </c>
       <c r="K8" s="28">
         <f>bc_ttnl_theo_kh!M9</f>
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="L8" s="28">
         <f>bc_ttnl_theo_kh!N9</f>
@@ -26872,7 +26805,7 @@
       </c>
       <c r="M8" s="28">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="N8" s="28">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -26880,7 +26813,7 @@
       </c>
       <c r="O8" s="28">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
@@ -26923,7 +26856,7 @@
       </c>
       <c r="H9" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J10/(24*60*60),"[h]:mm")</f>
-        <v>3:16</v>
+        <v>0:00</v>
       </c>
       <c r="I9" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K10/(24*60*60),"[h]:mm")</f>
@@ -26931,11 +26864,11 @@
       </c>
       <c r="J9" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L10/(24*60*60),"[h]:mm")</f>
-        <v>3:16</v>
+        <v>0:00</v>
       </c>
       <c r="K9" s="29">
         <f>bc_ttnl_theo_kh!M10</f>
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="L9" s="29">
         <f>bc_ttnl_theo_kh!N10</f>
@@ -26943,7 +26876,7 @@
       </c>
       <c r="M9" s="29">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="N9" s="29">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -26951,7 +26884,7 @@
       </c>
       <c r="O9" s="29">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -27328,7 +27261,7 @@
         <v>B</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D15" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F16/(24*60*60),"[h]:mm")</f>
@@ -27348,27 +27281,27 @@
       </c>
       <c r="H15" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J16/(24*60*60),"[h]:mm")</f>
-        <v>9:12</v>
+        <v>0:00</v>
       </c>
       <c r="I15" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K16/(24*60*60),"[h]:mm")</f>
-        <v>4:58</v>
+        <v>0:00</v>
       </c>
       <c r="J15" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L16/(24*60*60),"[h]:mm")</f>
-        <v>14:10</v>
+        <v>0:00</v>
       </c>
       <c r="K15" s="29">
         <f>bc_ttnl_theo_kh!M16</f>
-        <v>23935</v>
+        <v>0</v>
       </c>
       <c r="L15" s="29">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>21290</v>
+        <v>0</v>
       </c>
       <c r="M15" s="29">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>45225</v>
+        <v>0</v>
       </c>
       <c r="N15" s="29">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -27376,7 +27309,7 @@
       </c>
       <c r="O15" s="29">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>45225</v>
+        <v>0</v>
       </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="24"/>
@@ -27418,27 +27351,27 @@
       </c>
       <c r="H16" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J17/(24*60*60),"[h]:mm")</f>
-        <v>5:29</v>
+        <v>0:00</v>
       </c>
       <c r="I16" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K17/(24*60*60),"[h]:mm")</f>
-        <v>3:35</v>
+        <v>0:00</v>
       </c>
       <c r="J16" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L17/(24*60*60),"[h]:mm")</f>
-        <v>9:04</v>
+        <v>0:00</v>
       </c>
       <c r="K16" s="29">
         <f>bc_ttnl_theo_kh!M17</f>
-        <v>12735</v>
+        <v>0</v>
       </c>
       <c r="L16" s="29">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="M16" s="29">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>32625</v>
+        <v>0</v>
       </c>
       <c r="N16" s="29">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -27446,7 +27379,7 @@
       </c>
       <c r="O16" s="29">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>32625</v>
+        <v>0</v>
       </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="26"/>
@@ -27558,27 +27491,27 @@
       </c>
       <c r="H18" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J19/(24*60*60),"[h]:mm")</f>
-        <v>5:29</v>
+        <v>0:00</v>
       </c>
       <c r="I18" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K19/(24*60*60),"[h]:mm")</f>
-        <v>3:35</v>
+        <v>0:00</v>
       </c>
       <c r="J18" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L19/(24*60*60),"[h]:mm")</f>
-        <v>9:04</v>
+        <v>0:00</v>
       </c>
       <c r="K18" s="29">
         <f>bc_ttnl_theo_kh!M19</f>
-        <v>12735</v>
+        <v>0</v>
       </c>
       <c r="L18" s="29">
         <f>bc_ttnl_theo_kh!N19</f>
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="M18" s="29">
         <f>bc_ttnl_theo_kh!O19</f>
-        <v>32625</v>
+        <v>0</v>
       </c>
       <c r="N18" s="29">
         <f>bc_ttnl_theo_kh!P19</f>
@@ -27586,7 +27519,7 @@
       </c>
       <c r="O18" s="29">
         <f>bc_ttnl_theo_kh!Q19</f>
-        <v>32625</v>
+        <v>0</v>
       </c>
       <c r="P18" s="29"/>
       <c r="Q18" s="26"/>
@@ -27928,7 +27861,7 @@
       </c>
       <c r="M23" s="29">
         <f>bc_ttnl_theo_kh!O24</f>
-        <v>7187063</v>
+        <v>0</v>
       </c>
       <c r="N23" s="29">
         <f>bc_ttnl_theo_kh!P24</f>
@@ -27978,27 +27911,27 @@
       </c>
       <c r="H24" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J25/(24*60*60),"[h]:mm")</f>
-        <v>2:11</v>
+        <v>0:00</v>
       </c>
       <c r="I24" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K25/(24*60*60),"[h]:mm")</f>
-        <v>1:23</v>
+        <v>0:00</v>
       </c>
       <c r="J24" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L25/(24*60*60),"[h]:mm")</f>
-        <v>3:34</v>
+        <v>0:00</v>
       </c>
       <c r="K24" s="29">
         <f>bc_ttnl_theo_kh!M25</f>
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="L24" s="29">
         <f>bc_ttnl_theo_kh!N25</f>
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="M24" s="29">
         <f>bc_ttnl_theo_kh!O25</f>
-        <v>10015</v>
+        <v>0</v>
       </c>
       <c r="N24" s="29">
         <f>bc_ttnl_theo_kh!P25</f>
@@ -28006,7 +27939,7 @@
       </c>
       <c r="O24" s="29">
         <f>bc_ttnl_theo_kh!Q25</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="29"/>
       <c r="Q24" s="26"/>
@@ -28048,7 +27981,7 @@
       </c>
       <c r="H25" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J26/(24*60*60),"[h]:mm")</f>
-        <v>1:32</v>
+        <v>0:00</v>
       </c>
       <c r="I25" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K26/(24*60*60),"[h]:mm")</f>
@@ -28056,11 +27989,11 @@
       </c>
       <c r="J25" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L26/(24*60*60),"[h]:mm")</f>
-        <v>1:32</v>
+        <v>0:00</v>
       </c>
       <c r="K25" s="29">
         <f>bc_ttnl_theo_kh!M26</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="L25" s="29">
         <f>bc_ttnl_theo_kh!N26</f>
@@ -28068,7 +28001,7 @@
       </c>
       <c r="M25" s="29">
         <f>bc_ttnl_theo_kh!O26</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="N25" s="29">
         <f>bc_ttnl_theo_kh!P26</f>
@@ -28076,7 +28009,7 @@
       </c>
       <c r="O25" s="29">
         <f>bc_ttnl_theo_kh!Q26</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="26"/>
@@ -28378,7 +28311,7 @@
         <v>C</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D30" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F31/(24*60*60),"[h]:mm")</f>
@@ -33815,27 +33748,27 @@
       </c>
       <c r="H103" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J104/(24*60*60),"[h]:mm")</f>
-        <v>7:32</v>
+        <v>0:00</v>
       </c>
       <c r="I103" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K104/(24*60*60),"[h]:mm")</f>
-        <v>3:35</v>
+        <v>0:00</v>
       </c>
       <c r="J103" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L104/(24*60*60),"[h]:mm")</f>
-        <v>11:07</v>
+        <v>0:00</v>
       </c>
       <c r="K103" s="28">
         <f>bc_ttnl_theo_kh!M104</f>
-        <v>22915</v>
+        <v>0</v>
       </c>
       <c r="L103" s="28">
         <f>bc_ttnl_theo_kh!N104</f>
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="M103" s="28">
         <f>bc_ttnl_theo_kh!O104</f>
-        <v>42805</v>
+        <v>0</v>
       </c>
       <c r="N103" s="28">
         <f>bc_ttnl_theo_kh!P104</f>
@@ -33843,7 +33776,7 @@
       </c>
       <c r="O103" s="28">
         <f>bc_ttnl_theo_kh!Q104</f>
-        <v>42805</v>
+        <v>0</v>
       </c>
       <c r="P103" s="29"/>
       <c r="Q103" s="24"/>
@@ -33889,27 +33822,27 @@
       </c>
       <c r="H104" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J105/(24*60*60),"[h]:mm")</f>
-        <v>3:49</v>
+        <v>0:00</v>
       </c>
       <c r="I104" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K105/(24*60*60),"[h]:mm")</f>
-        <v>3:35</v>
+        <v>0:00</v>
       </c>
       <c r="J104" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L105/(24*60*60),"[h]:mm")</f>
-        <v>7:24</v>
+        <v>0:00</v>
       </c>
       <c r="K104" s="29">
         <f>bc_ttnl_theo_kh!M105</f>
-        <v>11715</v>
+        <v>0</v>
       </c>
       <c r="L104" s="29">
         <f>bc_ttnl_theo_kh!N105</f>
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="M104" s="29">
         <f>bc_ttnl_theo_kh!O105</f>
-        <v>31605</v>
+        <v>0</v>
       </c>
       <c r="N104" s="29">
         <f>bc_ttnl_theo_kh!P105</f>
@@ -33917,7 +33850,7 @@
       </c>
       <c r="O104" s="29">
         <f>bc_ttnl_theo_kh!Q105</f>
-        <v>31605</v>
+        <v>0</v>
       </c>
       <c r="P104" s="29"/>
       <c r="Q104" s="26"/>
@@ -33963,27 +33896,27 @@
       </c>
       <c r="H105" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J106/(24*60*60),"[h]:mm")</f>
-        <v>3:49</v>
+        <v>0:00</v>
       </c>
       <c r="I105" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K106/(24*60*60),"[h]:mm")</f>
-        <v>3:35</v>
+        <v>0:00</v>
       </c>
       <c r="J105" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L106/(24*60*60),"[h]:mm")</f>
-        <v>7:24</v>
+        <v>0:00</v>
       </c>
       <c r="K105" s="29">
         <f>bc_ttnl_theo_kh!M106</f>
-        <v>11715</v>
+        <v>0</v>
       </c>
       <c r="L105" s="29">
         <f>bc_ttnl_theo_kh!N106</f>
-        <v>19890</v>
+        <v>0</v>
       </c>
       <c r="M105" s="29">
         <f>bc_ttnl_theo_kh!O106</f>
-        <v>31605</v>
+        <v>0</v>
       </c>
       <c r="N105" s="29">
         <f>bc_ttnl_theo_kh!P106</f>
@@ -33991,7 +33924,7 @@
       </c>
       <c r="O105" s="29">
         <f>bc_ttnl_theo_kh!Q106</f>
-        <v>31605</v>
+        <v>0</v>
       </c>
       <c r="P105" s="29"/>
       <c r="Q105" s="26"/>
@@ -34407,7 +34340,7 @@
       </c>
       <c r="H111" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J112/(24*60*60),"[h]:mm")</f>
-        <v>2:11</v>
+        <v>0:00</v>
       </c>
       <c r="I111" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K112/(24*60*60),"[h]:mm")</f>
@@ -34415,11 +34348,11 @@
       </c>
       <c r="J111" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L112/(24*60*60),"[h]:mm")</f>
-        <v>2:11</v>
+        <v>0:00</v>
       </c>
       <c r="K111" s="29">
         <f>bc_ttnl_theo_kh!M112</f>
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="L111" s="29">
         <f>bc_ttnl_theo_kh!N112</f>
@@ -34427,7 +34360,7 @@
       </c>
       <c r="M111" s="29">
         <f>bc_ttnl_theo_kh!O112</f>
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="N111" s="29">
         <f>bc_ttnl_theo_kh!P112</f>
@@ -34435,7 +34368,7 @@
       </c>
       <c r="O111" s="29">
         <f>bc_ttnl_theo_kh!Q112</f>
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="P111" s="29"/>
       <c r="Q111" s="26"/>
@@ -34481,7 +34414,7 @@
       </c>
       <c r="H112" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J113/(24*60*60),"[h]:mm")</f>
-        <v>1:32</v>
+        <v>0:00</v>
       </c>
       <c r="I112" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K113/(24*60*60),"[h]:mm")</f>
@@ -34489,11 +34422,11 @@
       </c>
       <c r="J112" s="26" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L113/(24*60*60),"[h]:mm")</f>
-        <v>1:32</v>
+        <v>0:00</v>
       </c>
       <c r="K112" s="29">
         <f>bc_ttnl_theo_kh!M113</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="L112" s="29">
         <f>bc_ttnl_theo_kh!N113</f>
@@ -34501,7 +34434,7 @@
       </c>
       <c r="M112" s="29">
         <f>bc_ttnl_theo_kh!O113</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="N112" s="29">
         <f>bc_ttnl_theo_kh!P113</f>
@@ -34509,7 +34442,7 @@
       </c>
       <c r="O112" s="29">
         <f>bc_ttnl_theo_kh!Q113</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="P112" s="29"/>
       <c r="Q112" s="26"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1469,6 +1469,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1493,9 +1505,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1504,15 +1513,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1523,18 +1523,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,6 +1532,18 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,9 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1566,6 +1563,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1869,158 +1869,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="U2" s="91" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="U2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="92"/>
+      <c r="V2" s="95"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:23" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89" t="s">
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="85" t="s">
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="87"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="94"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="81" t="s">
+      <c r="G6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="85" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="81" t="s">
+      <c r="P6" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81" t="s">
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="81" t="s">
+      <c r="T6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="83" t="s">
+      <c r="W6" s="87" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="95"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
       <c r="P7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="84"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="88"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -2198,11 +2198,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="C2:G2"/>
@@ -2219,12 +2220,11 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10864,28 +10864,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="U2" s="103" t="s">
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="U2" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="105"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="101"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="21"/>
     </row>
@@ -10903,113 +10903,113 @@
     <row r="5" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:29" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89" t="s">
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="99" t="s">
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99" t="s">
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103" t="s">
         <v>176</v>
       </c>
       <c r="Y6" s="52"/>
       <c r="Z6" s="52"/>
       <c r="AA6" s="48"/>
-      <c r="AB6" s="99" t="s">
+      <c r="AB6" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" s="100"/>
+      <c r="AC6" s="104"/>
     </row>
     <row r="7" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
-      <c r="C7" s="94"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="3"/>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81" t="s">
+      <c r="G7" s="85"/>
+      <c r="H7" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="101" t="s">
+      <c r="K7" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="85"/>
+      <c r="N7" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="O7" s="81"/>
+      <c r="O7" s="85"/>
       <c r="P7" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="Q7" s="101" t="s">
+      <c r="Q7" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101" t="s">
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101" t="s">
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="X7" s="101"/>
+      <c r="X7" s="102"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="49"/>
-      <c r="AB7" s="101" t="s">
+      <c r="AB7" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" s="102" t="s">
+      <c r="AC7" s="105" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="94"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="3"/>
       <c r="E8" s="49"/>
       <c r="F8" s="50"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="101"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="49" t="s">
         <v>165</v>
       </c>
@@ -11043,13 +11043,13 @@
       <c r="V8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="49"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="105"/>
     </row>
     <row r="9" spans="2:29" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
@@ -15365,12 +15365,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="L2:R2"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:V7"/>
@@ -15381,11 +15380,12 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="Q6:W6"/>
     <mergeCell ref="L6:P6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -26480,6 +26480,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="AD5:AD7"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="W6:W7"/>
@@ -26489,24 +26507,6 @@
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="Z5:AC5"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26533,34 +26533,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" s="78" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="112" t="s">
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="111" t="s">
         <v>310</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
       <c r="T2" s="77"/>
       <c r="U2" s="77"/>
-      <c r="Y2" s="110" t="s">
+      <c r="Y2" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="Z2" s="111"/>
+      <c r="Z2" s="110"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Q3" s="71"/>
@@ -26595,107 +26595,107 @@
       <c r="AB4" s="14"/>
     </row>
     <row r="5" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="99" t="s">
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="O5" s="99" t="s">
+      <c r="O5" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="99" t="s">
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="U5" s="99"/>
-      <c r="V5" s="89" t="s">
+      <c r="U5" s="103"/>
+      <c r="V5" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89" t="s">
+      <c r="W5" s="84"/>
+      <c r="X5" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="109" t="s">
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="113" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="94"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="101" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="101" t="s">
+      <c r="M6" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="81" t="s">
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81" t="s">
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="81"/>
-      <c r="T6" s="101" t="s">
+      <c r="S6" s="85"/>
+      <c r="T6" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="U6" s="101" t="s">
+      <c r="U6" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="W6" s="81" t="s">
+      <c r="W6" s="85" t="s">
         <v>204</v>
       </c>
       <c r="X6" s="3" t="s">
@@ -26706,11 +26706,11 @@
         <v>207</v>
       </c>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="83"/>
+      <c r="AB6" s="87"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="94"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="3" t="s">
         <v>203</v>
       </c>
@@ -26720,15 +26720,15 @@
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
       <c r="P7" s="3" t="s">
         <v>178</v>
       </c>
@@ -26741,10 +26741,10 @@
       <c r="S7" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
       <c r="X7" s="3" t="s">
         <v>179</v>
       </c>
@@ -26757,7 +26757,7 @@
       <c r="AA7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="AB7" s="83"/>
+      <c r="AB7" s="87"/>
     </row>
     <row r="8" spans="2:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="str">
@@ -39971,20 +39971,6 @@
     <row r="192" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="I2:S2"/>
-    <mergeCell ref="B2:H2"/>
     <mergeCell ref="AB5:AB7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:G7"/>
@@ -40000,6 +39986,20 @@
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="I2:S2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9005" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11731" uniqueCount="352">
   <si>
     <t>CXD</t>
   </si>
@@ -1114,6 +1114,9 @@
   <si>
     <t>01:00:00</t>
   </si>
+  <si>
+    <t>15882</t>
+  </si>
 </sst>
 </file>
 
@@ -2427,76 +2430,76 @@
       <c r="J7" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="K7" t="s" s="12">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s" s="12">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="12">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s" s="12">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s" s="12">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s" s="12">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s" s="12">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s" s="12">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s" s="12">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" t="s" s="12">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s" s="12">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s" s="12">
+      <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s" s="12">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s" s="12">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" t="s" s="12">
+      <c r="Y7" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" t="s" s="12">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" t="s" s="12">
+      <c r="AA7" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" t="s" s="12">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="s" s="12">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s" s="12">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" t="s" s="12">
+      <c r="AE7" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" t="s" s="12">
+      <c r="AF7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s" s="12">
+      <c r="AG7" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" t="s" s="12">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2507,76 +2510,76 @@
       <c r="J8" t="s" s="12">
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="12">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="12">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="12">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s" s="12">
+      <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s" s="12">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="P8" t="s" s="12">
+      <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" t="s" s="12">
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s" s="12">
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="S8" t="s" s="12">
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s" s="12">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s" s="12">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s" s="12">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s" s="12">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s" s="12">
+      <c r="W8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="12">
+      <c r="Y8" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="12">
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="12">
+      <c r="AA8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" t="s" s="12">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s" s="12">
+      <c r="AC8" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="12">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s" s="12">
+      <c r="AE8" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" t="s" s="12">
+      <c r="AF8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s" s="12">
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AH8" t="s" s="12">
+      <c r="AH8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2648,7 +2651,7 @@
         <v>303</v>
       </c>
       <c r="X9" t="s" s="12">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="Y9" t="s" s="12">
         <v>303</v>
@@ -2764,7 +2767,7 @@
         <v>303</v>
       </c>
       <c r="X10" t="s" s="12">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="Y10" t="s" s="12">
         <v>303</v>
@@ -2880,7 +2883,7 @@
         <v>303</v>
       </c>
       <c r="X11" t="s" s="12">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="Y11" t="s" s="12">
         <v>303</v>
@@ -2996,7 +2999,7 @@
         <v>303</v>
       </c>
       <c r="X12" t="s" s="12">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="Y12" t="s" s="12">
         <v>303</v>
@@ -4211,76 +4214,76 @@
       <c r="J24" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="K24" t="s" s="12">
+      <c r="K24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s" s="12">
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="M24" t="s" s="12">
+      <c r="M24" t="s">
         <v>26</v>
       </c>
-      <c r="N24" t="s" s="12">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s" s="12">
+      <c r="O24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s" s="12">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" t="s" s="12">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
-      <c r="R24" t="s" s="12">
+      <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="S24" t="s" s="12">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="T24" t="s" s="12">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
-      <c r="U24" t="s" s="12">
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="V24" t="s" s="12">
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="W24" t="s" s="12">
+      <c r="W24" t="s">
         <v>27</v>
       </c>
-      <c r="X24" t="s" s="12">
+      <c r="X24" t="s">
         <v>27</v>
       </c>
-      <c r="Y24" t="s" s="12">
+      <c r="Y24" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" t="s" s="12">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" t="s" s="12">
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" t="s" s="12">
+      <c r="AB24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s" s="12">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AD24" t="s" s="12">
+      <c r="AD24" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" t="s" s="12">
+      <c r="AE24" t="s">
         <v>27</v>
       </c>
-      <c r="AF24" t="s" s="12">
+      <c r="AF24" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" t="s" s="12">
+      <c r="AG24" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" t="s" s="12">
+      <c r="AH24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4291,76 +4294,76 @@
       <c r="J25" t="s" s="12">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="12">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="L25" t="s" s="12">
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="M25" t="s" s="12">
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="N25" t="s" s="12">
+      <c r="N25" t="s">
         <v>1</v>
       </c>
-      <c r="O25" t="s" s="12">
+      <c r="O25" t="s">
         <v>98</v>
       </c>
-      <c r="P25" t="s" s="12">
+      <c r="P25" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" t="s" s="12">
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" t="s" s="12">
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="S25" t="s" s="12">
+      <c r="S25" t="s">
         <v>100</v>
       </c>
-      <c r="T25" t="s" s="12">
+      <c r="T25" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s" s="12">
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="V25" t="s" s="12">
+      <c r="V25" t="s">
         <v>94</v>
       </c>
-      <c r="W25" t="s" s="12">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s" s="12">
+      <c r="W25" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
         <v>95</v>
       </c>
-      <c r="Y25" t="s" s="12">
+      <c r="Y25" t="s">
         <v>96</v>
       </c>
-      <c r="Z25" t="s" s="12">
+      <c r="Z25" t="s">
         <v>97</v>
       </c>
-      <c r="AA25" t="s" s="12">
+      <c r="AA25" t="s">
         <v>1</v>
       </c>
-      <c r="AB25" t="s" s="12">
+      <c r="AB25" t="s">
         <v>98</v>
       </c>
-      <c r="AC25" t="s" s="12">
+      <c r="AC25" t="s">
         <v>2</v>
       </c>
-      <c r="AD25" t="s" s="12">
+      <c r="AD25" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" t="s" s="12">
+      <c r="AE25" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" t="s" s="12">
+      <c r="AF25" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" t="s" s="12">
+      <c r="AG25" t="s">
         <v>101</v>
       </c>
-      <c r="AH25" t="s" s="12">
+      <c r="AH25" t="s">
         <v>102</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11731" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20401" uniqueCount="355">
   <si>
     <t>CXD</t>
   </si>
@@ -1117,6 +1117,15 @@
   <si>
     <t>15882</t>
   </si>
+  <si>
+    <t>15895</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
 </sst>
 </file>
 
@@ -2651,7 +2660,7 @@
         <v>303</v>
       </c>
       <c r="X9" t="s" s="12">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y9" t="s" s="12">
         <v>303</v>
@@ -2767,7 +2776,7 @@
         <v>303</v>
       </c>
       <c r="X10" t="s" s="12">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y10" t="s" s="12">
         <v>303</v>
@@ -2883,7 +2892,7 @@
         <v>303</v>
       </c>
       <c r="X11" t="s" s="12">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="Y11" t="s" s="12">
         <v>303</v>
@@ -2999,7 +3008,7 @@
         <v>303</v>
       </c>
       <c r="X12" t="s" s="12">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="Y12" t="s" s="12">
         <v>303</v>
@@ -4420,7 +4429,7 @@
         <v>303</v>
       </c>
       <c r="S26" t="s" s="12">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="T26" t="s" s="12">
         <v>328</v>
@@ -4536,7 +4545,7 @@
         <v>303</v>
       </c>
       <c r="S27" t="s" s="12">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="T27" t="s" s="12">
         <v>328</v>
@@ -6972,7 +6981,7 @@
         <v>303</v>
       </c>
       <c r="S48" t="s" s="12">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="T48" t="s" s="12">
         <v>303</v>
@@ -7204,7 +7213,7 @@
         <v>303</v>
       </c>
       <c r="S50" t="s" s="12">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="T50" t="s" s="12">
         <v>303</v>
